--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291408.0982401153</v>
+        <v>170555.0311696914</v>
       </c>
     </row>
     <row r="7">
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
         <v>92.28885500239529</v>
       </c>
-      <c r="C11" t="n">
+      <c r="U11" t="n">
+        <v>92.28885500239529</v>
+      </c>
+      <c r="V11" t="n">
+        <v>92.28885500239529</v>
+      </c>
+      <c r="W11" t="n">
         <v>81.28802348610976</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,55 +1451,55 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>92.28885500239529</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>92.28885500239529</v>
+      </c>
+      <c r="F12" t="n">
+        <v>92.28885500239529</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14.42701010228134</v>
+      </c>
+      <c r="R12" t="n">
         <v>66.86101338382841</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>14.42701010228137</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.26801353185769</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>92.28885500239528</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>92.28885500239528</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>92.28885500239528</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>25.02000995425203</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>81.28802348610978</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="F15" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="G15" t="n">
-        <v>92.28885500239528</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>47.37835074240025</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.90967274370948</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>81.28802348610971</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>81.38664663458717</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>92.40082497114804</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="H17" t="n">
-        <v>92.40082497114804</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>92.40082497114804</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>57.63950041187357</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>81.38664663458724</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1967,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.40192103162354</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>84.59826427738966</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.40082497114804</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>92.40082497114804</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="U18" t="n">
-        <v>74.78728629672197</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="H20" t="n">
-        <v>81.38664663458708</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.63950041187345</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,13 +2162,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>81.38664663458729</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2213,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="V21" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>66.98472560296351</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="I23" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>81.27022026107799</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.27022026107805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>81.48526978306458</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>81.48526978306461</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>81.27022026107798</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>92.51279493990077</v>
+        <v>81.27022026107799</v>
       </c>
       <c r="U26" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2678,13 +2678,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>67.08334875144105</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>81.48526978306461</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="W27" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="Y27" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.27022026107799</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>81.27022026107797</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>81.4852697830646</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="W30" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>81.48526978306458</v>
       </c>
       <c r="Y30" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>57.52307403836434</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>57.52307403836434</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
     </row>
     <row r="33">
@@ -3107,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="D33" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>55.50869709683042</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.89110334874525</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.59826427738969</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>81.48526978306458</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="C35" t="n">
-        <v>57.52307403836434</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>81.27022026107799</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3392,14 +3392,14 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
         <v>81.48526978306461</v>
       </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>81.27022026107808</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>81.27022026107805</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="V38" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>15.83458599241812</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,22 +3629,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>81.48526978306461</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>92.51279493990077</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="H41" t="n">
-        <v>57.63950041187351</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="U41" t="n">
-        <v>92.40082497114798</v>
+        <v>57.63950041187356</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>81.38664663458724</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>81.38664663458708</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="X42" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>32.65066844377793</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3997,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>81.38664663458719</v>
       </c>
       <c r="J44" t="n">
-        <v>24.98883196809552</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="U44" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="D45" t="n">
-        <v>92.40082497114798</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>66.98472560296351</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>92.40082497114798</v>
+        <v>81.38664663458722</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
     </row>
     <row r="46">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.49222303262574</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="C11" t="n">
         <v>7.383108400191624</v>
@@ -5050,10 +5050,10 @@
         <v>74.7904686488213</v>
       </c>
       <c r="M11" t="n">
-        <v>166.1564351011926</v>
+        <v>166.1564351011925</v>
       </c>
       <c r="N11" t="n">
-        <v>257.522401553564</v>
+        <v>257.5224015535638</v>
       </c>
       <c r="O11" t="n">
         <v>336.3655865638286</v>
@@ -5071,22 +5071,22 @@
         <v>369.1554200095812</v>
       </c>
       <c r="T11" t="n">
-        <v>369.1554200095812</v>
+        <v>275.934354350596</v>
       </c>
       <c r="U11" t="n">
-        <v>369.1554200095812</v>
+        <v>182.7132886916109</v>
       </c>
       <c r="V11" t="n">
-        <v>369.1554200095812</v>
+        <v>89.49222303262574</v>
       </c>
       <c r="W11" t="n">
-        <v>369.1554200095812</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="X11" t="n">
-        <v>275.934354350596</v>
+        <v>7.383108400191624</v>
       </c>
       <c r="Y11" t="n">
-        <v>182.7132886916109</v>
+        <v>7.383108400191624</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.140551214559</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="C12" t="n">
-        <v>74.91948555557387</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="D12" t="n">
-        <v>7.383108400191624</v>
+        <v>193.8252397181619</v>
       </c>
       <c r="E12" t="n">
-        <v>7.383108400191624</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="F12" t="n">
         <v>7.383108400191624</v>
@@ -5123,16 +5123,16 @@
         <v>7.383108400191624</v>
       </c>
       <c r="K12" t="n">
-        <v>28.16047167062938</v>
+        <v>28.16047167062941</v>
       </c>
       <c r="L12" t="n">
-        <v>102.420741828772</v>
+        <v>42.60202816422103</v>
       </c>
       <c r="M12" t="n">
-        <v>193.7867082811433</v>
+        <v>133.9679946165924</v>
       </c>
       <c r="N12" t="n">
-        <v>285.1526747335147</v>
+        <v>225.3339610689637</v>
       </c>
       <c r="O12" t="n">
         <v>315.8452207473479</v>
@@ -5144,28 +5144,28 @@
         <v>354.5826825325293</v>
       </c>
       <c r="R12" t="n">
-        <v>354.5826825325293</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="S12" t="n">
-        <v>261.3616168735442</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="T12" t="n">
-        <v>261.3616168735442</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="U12" t="n">
-        <v>261.3616168735442</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="V12" t="n">
-        <v>261.3616168735442</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="W12" t="n">
-        <v>168.140551214559</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="X12" t="n">
-        <v>168.140551214559</v>
+        <v>287.0463053771471</v>
       </c>
       <c r="Y12" t="n">
-        <v>168.140551214559</v>
+        <v>287.0463053771471</v>
       </c>
     </row>
     <row r="13">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>312.3190427046744</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="C14" t="n">
-        <v>312.3190427046744</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="D14" t="n">
-        <v>219.0979770456892</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="E14" t="n">
-        <v>219.0979770456892</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="F14" t="n">
-        <v>125.8769113867041</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="G14" t="n">
-        <v>125.8769113867041</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="H14" t="n">
-        <v>125.8769113867041</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="I14" t="n">
-        <v>32.65584572771893</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="J14" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="K14" t="n">
-        <v>20.99810258477126</v>
+        <v>20.9981025847712</v>
       </c>
       <c r="L14" t="n">
-        <v>74.7904686488212</v>
+        <v>74.79046864882113</v>
       </c>
       <c r="M14" t="n">
         <v>166.1564351011925</v>
@@ -5293,37 +5293,37 @@
         <v>257.5224015535639</v>
       </c>
       <c r="O14" t="n">
-        <v>336.3655865638285</v>
+        <v>336.3655865638286</v>
       </c>
       <c r="P14" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="Q14" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="R14" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="S14" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="T14" t="n">
-        <v>369.1554200095811</v>
+        <v>275.9343543505961</v>
       </c>
       <c r="U14" t="n">
-        <v>369.1554200095811</v>
+        <v>182.7132886916109</v>
       </c>
       <c r="V14" t="n">
-        <v>369.1554200095811</v>
+        <v>182.7132886916109</v>
       </c>
       <c r="W14" t="n">
-        <v>369.1554200095811</v>
+        <v>89.49222303262576</v>
       </c>
       <c r="X14" t="n">
-        <v>369.1554200095811</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="Y14" t="n">
-        <v>369.1554200095811</v>
+        <v>7.383108400191625</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>369.1554200095811</v>
+        <v>193.825239718162</v>
       </c>
       <c r="C15" t="n">
-        <v>369.1554200095811</v>
+        <v>193.825239718162</v>
       </c>
       <c r="D15" t="n">
-        <v>369.1554200095811</v>
+        <v>193.825239718162</v>
       </c>
       <c r="E15" t="n">
-        <v>275.934354350596</v>
+        <v>100.6041740591768</v>
       </c>
       <c r="F15" t="n">
-        <v>182.7132886916108</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="G15" t="n">
-        <v>89.4922230326257</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="H15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="I15" t="n">
-        <v>41.63530309080726</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="J15" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="K15" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="L15" t="n">
-        <v>81.64337855833422</v>
+        <v>81.64337855833426</v>
       </c>
       <c r="M15" t="n">
-        <v>173.0093450107055</v>
+        <v>173.0093450107056</v>
       </c>
       <c r="N15" t="n">
-        <v>264.3753114630769</v>
+        <v>264.375311463077</v>
       </c>
       <c r="O15" t="n">
         <v>315.8452207473479</v>
       </c>
       <c r="P15" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="Q15" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="R15" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="S15" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="T15" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="U15" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="V15" t="n">
-        <v>369.1554200095811</v>
+        <v>369.1554200095812</v>
       </c>
       <c r="W15" t="n">
-        <v>369.1554200095811</v>
+        <v>287.0463053771472</v>
       </c>
       <c r="X15" t="n">
-        <v>369.1554200095811</v>
+        <v>287.0463053771472</v>
       </c>
       <c r="Y15" t="n">
-        <v>369.1554200095811</v>
+        <v>287.0463053771472</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="C16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="D16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="E16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="F16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="G16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="H16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="I16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="J16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="K16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="L16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="M16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="N16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="O16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="P16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="R16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="S16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="T16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="U16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="V16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="W16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="X16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.383108400191623</v>
+        <v>7.383108400191625</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>369.6032998845922</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="C17" t="n">
-        <v>369.6032998845922</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="D17" t="n">
-        <v>369.6032998845922</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="E17" t="n">
-        <v>369.6032998845922</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="F17" t="n">
-        <v>287.3945659102617</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="G17" t="n">
-        <v>194.0603992727384</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="H17" t="n">
-        <v>100.7262326352151</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="I17" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="J17" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="K17" t="n">
-        <v>21.05332062426876</v>
+        <v>21.05332062426911</v>
       </c>
       <c r="L17" t="n">
-        <v>74.90307685724488</v>
+        <v>74.90307685724513</v>
       </c>
       <c r="M17" t="n">
-        <v>166.3798935786814</v>
+        <v>166.3798935786817</v>
       </c>
       <c r="N17" t="n">
-        <v>257.856710300118</v>
+        <v>257.8567103001183</v>
       </c>
       <c r="O17" t="n">
-        <v>336.7611699508444</v>
+        <v>336.7611699508446</v>
       </c>
       <c r="P17" t="n">
-        <v>369.6032998845922</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="Q17" t="n">
-        <v>369.6032998845922</v>
+        <v>345.6162834980129</v>
       </c>
       <c r="R17" t="n">
-        <v>369.6032998845922</v>
+        <v>252.2821168604896</v>
       </c>
       <c r="S17" t="n">
-        <v>369.6032998845922</v>
+        <v>252.2821168604896</v>
       </c>
       <c r="T17" t="n">
-        <v>369.6032998845922</v>
+        <v>252.2821168604896</v>
       </c>
       <c r="U17" t="n">
-        <v>369.6032998845922</v>
+        <v>252.2821168604896</v>
       </c>
       <c r="V17" t="n">
-        <v>369.6032998845922</v>
+        <v>158.9479502229663</v>
       </c>
       <c r="W17" t="n">
-        <v>369.6032998845922</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="X17" t="n">
-        <v>369.6032998845922</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="Y17" t="n">
-        <v>369.6032998845922</v>
+        <v>100.7262326352152</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.392065997691843</v>
+        <v>182.9349666095457</v>
       </c>
       <c r="C18" t="n">
-        <v>7.392065997691843</v>
+        <v>182.9349666095457</v>
       </c>
       <c r="D18" t="n">
-        <v>7.392065997691843</v>
+        <v>182.9349666095457</v>
       </c>
       <c r="E18" t="n">
-        <v>7.392065997691843</v>
+        <v>182.9349666095457</v>
       </c>
       <c r="F18" t="n">
-        <v>7.392065997691843</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="G18" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="H18" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="I18" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="J18" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="K18" t="n">
-        <v>28.20084994127642</v>
+        <v>28.20084994127639</v>
       </c>
       <c r="L18" t="n">
-        <v>102.5033690720168</v>
+        <v>102.5033690720167</v>
       </c>
       <c r="M18" t="n">
-        <v>193.9801857934534</v>
+        <v>193.9801857934533</v>
       </c>
       <c r="N18" t="n">
         <v>285.45700251489</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2559440569824</v>
+        <v>316.2559440569826</v>
       </c>
       <c r="P18" t="n">
-        <v>369.6032998845922</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="Q18" t="n">
-        <v>355.0559049031542</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="R18" t="n">
-        <v>269.6031127037707</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="S18" t="n">
-        <v>176.2689460662474</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="T18" t="n">
-        <v>82.93477942872414</v>
+        <v>276.269133247069</v>
       </c>
       <c r="U18" t="n">
-        <v>7.392065997691843</v>
+        <v>276.269133247069</v>
       </c>
       <c r="V18" t="n">
-        <v>7.392065997691843</v>
+        <v>276.269133247069</v>
       </c>
       <c r="W18" t="n">
-        <v>7.392065997691843</v>
+        <v>276.269133247069</v>
       </c>
       <c r="X18" t="n">
-        <v>7.392065997691843</v>
+        <v>276.269133247069</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.392065997691843</v>
+        <v>276.269133247069</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="C19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="D19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="E19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="F19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="G19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="H19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="I19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="J19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="K19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="L19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="M19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="N19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="O19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="P19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="R19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="S19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="T19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="U19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="V19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="W19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="X19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.392065997691843</v>
+        <v>7.392065997691847</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="C20" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="D20" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="E20" t="n">
-        <v>89.60079997202223</v>
+        <v>100.7262326352153</v>
       </c>
       <c r="F20" t="n">
-        <v>89.60079997202223</v>
+        <v>100.7262326352153</v>
       </c>
       <c r="G20" t="n">
-        <v>89.60079997202223</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="H20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="I20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="J20" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="K20" t="n">
-        <v>21.05332062426899</v>
+        <v>21.05332062426913</v>
       </c>
       <c r="L20" t="n">
-        <v>74.903076857245</v>
+        <v>74.9030768572452</v>
       </c>
       <c r="M20" t="n">
-        <v>166.3798935786815</v>
+        <v>166.3798935786819</v>
       </c>
       <c r="N20" t="n">
-        <v>257.856710300118</v>
+        <v>257.8567103001186</v>
       </c>
       <c r="O20" t="n">
-        <v>336.7611699508442</v>
+        <v>336.7611699508448</v>
       </c>
       <c r="P20" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q20" t="n">
-        <v>369.6032998845919</v>
+        <v>345.616283498013</v>
       </c>
       <c r="R20" t="n">
-        <v>276.2691332470687</v>
+        <v>345.616283498013</v>
       </c>
       <c r="S20" t="n">
-        <v>276.2691332470687</v>
+        <v>287.394565910262</v>
       </c>
       <c r="T20" t="n">
-        <v>276.2691332470687</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="U20" t="n">
-        <v>276.2691332470687</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="V20" t="n">
-        <v>182.9349666095455</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="W20" t="n">
-        <v>182.9349666095455</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="X20" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727387</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.60079997202223</v>
+        <v>194.0603992727387</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.392065997691839</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="C21" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202246</v>
       </c>
       <c r="D21" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202246</v>
       </c>
       <c r="E21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="F21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="G21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="H21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="I21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="J21" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="K21" t="n">
-        <v>28.20084994127635</v>
+        <v>28.2008499412764</v>
       </c>
       <c r="L21" t="n">
         <v>102.5033690720167</v>
       </c>
       <c r="M21" t="n">
-        <v>193.9801857934532</v>
+        <v>134.2215717271245</v>
       </c>
       <c r="N21" t="n">
-        <v>285.4570025148897</v>
+        <v>225.6983884485612</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2559440569822</v>
+        <v>316.2559440569829</v>
       </c>
       <c r="P21" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845926</v>
       </c>
       <c r="Q21" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845926</v>
       </c>
       <c r="R21" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845926</v>
       </c>
       <c r="S21" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845926</v>
       </c>
       <c r="T21" t="n">
-        <v>261.7217382656307</v>
+        <v>369.6032998845926</v>
       </c>
       <c r="U21" t="n">
-        <v>168.3875716281075</v>
+        <v>276.2691332470692</v>
       </c>
       <c r="V21" t="n">
-        <v>75.05340499058428</v>
+        <v>276.2691332470692</v>
       </c>
       <c r="W21" t="n">
-        <v>7.392065997691839</v>
+        <v>276.2691332470692</v>
       </c>
       <c r="X21" t="n">
-        <v>7.392065997691839</v>
+        <v>182.9349666095459</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.392065997691839</v>
+        <v>182.9349666095459</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="C22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="D22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="E22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="F22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="G22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="H22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="I22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="J22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="K22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="L22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="M22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="N22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="O22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="P22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="Q22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="R22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="S22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="T22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="V22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="W22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="X22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
       <c r="Y22" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691852</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>194.2955588273148</v>
+        <v>194.295558827315</v>
       </c>
       <c r="C23" t="n">
-        <v>100.8482912112535</v>
+        <v>194.295558827315</v>
       </c>
       <c r="D23" t="n">
-        <v>100.8482912112535</v>
+        <v>194.295558827315</v>
       </c>
       <c r="E23" t="n">
-        <v>100.8482912112535</v>
+        <v>194.295558827315</v>
       </c>
       <c r="F23" t="n">
-        <v>100.8482912112535</v>
+        <v>194.295558827315</v>
       </c>
       <c r="G23" t="n">
         <v>100.8482912112535</v>
       </c>
       <c r="H23" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J23" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K23" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L23" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M23" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N23" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O23" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P23" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R23" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="S23" t="n">
-        <v>369.8339580202227</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="T23" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="U23" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="V23" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="W23" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="X23" t="n">
-        <v>369.8339580202227</v>
+        <v>194.295558827315</v>
       </c>
       <c r="Y23" t="n">
-        <v>287.7428264433762</v>
+        <v>194.295558827315</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.401023595192062</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="C24" t="n">
-        <v>7.401023595192062</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="D24" t="n">
-        <v>7.401023595192062</v>
+        <v>276.6039121435418</v>
       </c>
       <c r="E24" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274804</v>
       </c>
       <c r="F24" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="G24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J24" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K24" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L24" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M24" t="n">
-        <v>194.0999936600186</v>
+        <v>134.5586013330701</v>
       </c>
       <c r="N24" t="n">
-        <v>285.6876606505204</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O24" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="T24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="U24" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="V24" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="W24" t="n">
-        <v>194.2955588273148</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="X24" t="n">
-        <v>100.8482912112535</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.401023595192062</v>
+        <v>370.0511797596033</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.49215517203851</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J26" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K26" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L26" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M26" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N26" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O26" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P26" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q26" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R26" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="S26" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="T26" t="n">
-        <v>276.3866904041613</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="U26" t="n">
-        <v>182.9394227880999</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="V26" t="n">
-        <v>182.9394227880999</v>
+        <v>194.295558827315</v>
       </c>
       <c r="W26" t="n">
-        <v>182.9394227880999</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X26" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y26" t="n">
-        <v>182.9394227880999</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K27" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L27" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M27" t="n">
-        <v>194.0999936600186</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N27" t="n">
-        <v>285.6876606505204</v>
+        <v>285.6876606505206</v>
       </c>
       <c r="O27" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P27" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q27" t="n">
-        <v>370.0511797596031</v>
+        <v>355.5037847781654</v>
       </c>
       <c r="R27" t="n">
-        <v>370.0511797596031</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="S27" t="n">
-        <v>370.0511797596031</v>
+        <v>194.295558827315</v>
       </c>
       <c r="T27" t="n">
-        <v>370.0511797596031</v>
+        <v>194.295558827315</v>
       </c>
       <c r="U27" t="n">
-        <v>370.0511797596031</v>
+        <v>194.295558827315</v>
       </c>
       <c r="V27" t="n">
-        <v>287.7428264433762</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="W27" t="n">
-        <v>194.2955588273148</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X27" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>194.2955588273148</v>
+        <v>182.9394227881</v>
       </c>
       <c r="C29" t="n">
-        <v>194.2955588273148</v>
+        <v>182.9394227881</v>
       </c>
       <c r="D29" t="n">
-        <v>194.2955588273148</v>
+        <v>182.9394227881</v>
       </c>
       <c r="E29" t="n">
-        <v>100.8482912112535</v>
+        <v>182.9394227881</v>
       </c>
       <c r="F29" t="n">
-        <v>100.8482912112535</v>
+        <v>182.9394227881</v>
       </c>
       <c r="G29" t="n">
-        <v>7.401023595192062</v>
+        <v>89.49215517203851</v>
       </c>
       <c r="H29" t="n">
-        <v>7.401023595192062</v>
+        <v>89.49215517203851</v>
       </c>
       <c r="I29" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J29" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K29" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L29" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M29" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N29" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O29" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P29" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q29" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R29" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="S29" t="n">
-        <v>369.8339580202227</v>
+        <v>276.3866904041614</v>
       </c>
       <c r="T29" t="n">
-        <v>369.8339580202227</v>
+        <v>182.9394227881</v>
       </c>
       <c r="U29" t="n">
-        <v>369.8339580202227</v>
+        <v>182.9394227881</v>
       </c>
       <c r="V29" t="n">
-        <v>369.8339580202227</v>
+        <v>182.9394227881</v>
       </c>
       <c r="W29" t="n">
-        <v>369.8339580202227</v>
+        <v>182.9394227881</v>
       </c>
       <c r="X29" t="n">
-        <v>276.3866904041613</v>
+        <v>182.9394227881</v>
       </c>
       <c r="Y29" t="n">
-        <v>276.3866904041613</v>
+        <v>182.9394227881</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>183.1566445274803</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C30" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D30" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J30" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K30" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L30" t="n">
-        <v>42.9709343425682</v>
+        <v>102.5123266695169</v>
       </c>
       <c r="M30" t="n">
-        <v>134.55860133307</v>
+        <v>134.5586013330701</v>
       </c>
       <c r="N30" t="n">
-        <v>226.1462683235717</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O30" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="T30" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="U30" t="n">
-        <v>370.0511797596031</v>
+        <v>276.6039121435418</v>
       </c>
       <c r="V30" t="n">
-        <v>370.0511797596031</v>
+        <v>183.1566445274804</v>
       </c>
       <c r="W30" t="n">
-        <v>276.6039121435417</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="X30" t="n">
-        <v>276.6039121435417</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y30" t="n">
-        <v>183.1566445274803</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.0511797596031</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="C32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="H32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="I32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.401023595192067</v>
+      </c>
+      <c r="K32" t="n">
+        <v>21.06227822176935</v>
+      </c>
+      <c r="L32" t="n">
+        <v>74.9120344547454</v>
+      </c>
+      <c r="M32" t="n">
+        <v>166.4997014452472</v>
+      </c>
+      <c r="N32" t="n">
+        <v>258.087368435749</v>
+      </c>
+      <c r="O32" t="n">
+        <v>336.9918280864752</v>
+      </c>
+      <c r="P32" t="n">
+        <v>369.8339580202229</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>345.8469416336434</v>
+      </c>
+      <c r="R32" t="n">
+        <v>345.8469416336434</v>
+      </c>
+      <c r="S32" t="n">
+        <v>345.8469416336434</v>
+      </c>
+      <c r="T32" t="n">
+        <v>252.399674017582</v>
+      </c>
+      <c r="U32" t="n">
         <v>158.9524064015205</v>
       </c>
-      <c r="C32" t="n">
+      <c r="V32" t="n">
         <v>158.9524064015205</v>
       </c>
-      <c r="D32" t="n">
-        <v>158.9524064015205</v>
-      </c>
-      <c r="E32" t="n">
-        <v>65.50513878545908</v>
-      </c>
-      <c r="F32" t="n">
-        <v>65.50513878545908</v>
-      </c>
-      <c r="G32" t="n">
-        <v>65.50513878545908</v>
-      </c>
-      <c r="H32" t="n">
-        <v>65.50513878545908</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="K32" t="n">
-        <v>21.06227822176931</v>
-      </c>
-      <c r="L32" t="n">
-        <v>74.91203445474531</v>
-      </c>
-      <c r="M32" t="n">
-        <v>166.4997014452471</v>
-      </c>
-      <c r="N32" t="n">
-        <v>258.0873684357488</v>
-      </c>
-      <c r="O32" t="n">
-        <v>336.991828086475</v>
-      </c>
-      <c r="P32" t="n">
-        <v>369.8339580202227</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>345.8469416336433</v>
-      </c>
-      <c r="R32" t="n">
-        <v>345.8469416336433</v>
-      </c>
-      <c r="S32" t="n">
-        <v>345.8469416336433</v>
-      </c>
-      <c r="T32" t="n">
-        <v>252.3996740175819</v>
-      </c>
-      <c r="U32" t="n">
-        <v>252.3996740175819</v>
-      </c>
-      <c r="V32" t="n">
-        <v>252.3996740175819</v>
-      </c>
       <c r="W32" t="n">
-        <v>252.3996740175819</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="X32" t="n">
-        <v>252.3996740175819</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="Y32" t="n">
-        <v>252.3996740175819</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>191.1511199441582</v>
+        <v>194.295558827315</v>
       </c>
       <c r="C33" t="n">
-        <v>191.1511199441582</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="D33" t="n">
-        <v>97.70385232809679</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E33" t="n">
-        <v>97.70385232809679</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="F33" t="n">
-        <v>97.70385232809679</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G33" t="n">
-        <v>97.70385232809679</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H33" t="n">
-        <v>97.70385232809679</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I33" t="n">
-        <v>41.63446132119736</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J33" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K33" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L33" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M33" t="n">
-        <v>194.0999936600186</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N33" t="n">
-        <v>285.6876606505204</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O33" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P33" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q33" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R33" t="n">
-        <v>284.5983875602196</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S33" t="n">
-        <v>284.5983875602196</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="T33" t="n">
-        <v>284.5983875602196</v>
+        <v>276.6039121435418</v>
       </c>
       <c r="U33" t="n">
-        <v>284.5983875602196</v>
+        <v>194.295558827315</v>
       </c>
       <c r="V33" t="n">
-        <v>284.5983875602196</v>
+        <v>194.295558827315</v>
       </c>
       <c r="W33" t="n">
-        <v>284.5983875602196</v>
+        <v>194.295558827315</v>
       </c>
       <c r="X33" t="n">
-        <v>284.5983875602196</v>
+        <v>194.295558827315</v>
       </c>
       <c r="Y33" t="n">
-        <v>284.5983875602196</v>
+        <v>194.295558827315</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>65.50513878545908</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="C35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J35" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K35" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L35" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M35" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N35" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O35" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P35" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q35" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R35" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="S35" t="n">
-        <v>345.8469416336433</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="T35" t="n">
-        <v>345.8469416336433</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="U35" t="n">
-        <v>345.8469416336433</v>
+        <v>194.295558827315</v>
       </c>
       <c r="V35" t="n">
-        <v>345.8469416336433</v>
+        <v>194.295558827315</v>
       </c>
       <c r="W35" t="n">
-        <v>345.8469416336433</v>
+        <v>194.295558827315</v>
       </c>
       <c r="X35" t="n">
-        <v>252.3996740175819</v>
+        <v>194.295558827315</v>
       </c>
       <c r="Y35" t="n">
-        <v>158.9524064015205</v>
+        <v>194.295558827315</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>287.7428264433764</v>
+      </c>
+      <c r="C36" t="n">
+        <v>287.7428264433764</v>
+      </c>
+      <c r="D36" t="n">
+        <v>194.295558827315</v>
+      </c>
+      <c r="E36" t="n">
         <v>100.8482912112535</v>
       </c>
-      <c r="C36" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="D36" t="n">
-        <v>7.401023595192062</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7.401023595192062</v>
-      </c>
       <c r="F36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J36" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K36" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L36" t="n">
         <v>102.5123266695169</v>
       </c>
       <c r="M36" t="n">
-        <v>194.0999936600186</v>
+        <v>194.0999936600188</v>
       </c>
       <c r="N36" t="n">
-        <v>285.6876606505204</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P36" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q36" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R36" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S36" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="T36" t="n">
-        <v>287.7428264433762</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="U36" t="n">
-        <v>287.7428264433762</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="V36" t="n">
-        <v>287.7428264433762</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="W36" t="n">
-        <v>287.7428264433762</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="X36" t="n">
-        <v>287.7428264433762</v>
+        <v>287.7428264433764</v>
       </c>
       <c r="Y36" t="n">
-        <v>194.2955588273148</v>
+        <v>287.7428264433764</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="C37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="D37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="E37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="F37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="G37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="H37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="I37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="J37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="K37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="L37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="M37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="N37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="O37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="P37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="R37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="S37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="T37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="U37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="V37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="W37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="X37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192067</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.8482912112535</v>
+        <v>89.49215517203861</v>
       </c>
       <c r="C38" t="n">
-        <v>7.401023595192062</v>
+        <v>89.49215517203861</v>
       </c>
       <c r="D38" t="n">
-        <v>7.401023595192062</v>
+        <v>89.49215517203861</v>
       </c>
       <c r="E38" t="n">
-        <v>7.401023595192062</v>
+        <v>89.49215517203861</v>
       </c>
       <c r="F38" t="n">
-        <v>7.401023595192062</v>
+        <v>89.49215517203861</v>
       </c>
       <c r="G38" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="H38" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="I38" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="J38" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="K38" t="n">
-        <v>21.06227822176931</v>
+        <v>21.06227822176935</v>
       </c>
       <c r="L38" t="n">
-        <v>74.91203445474531</v>
+        <v>74.9120344547454</v>
       </c>
       <c r="M38" t="n">
-        <v>166.4997014452471</v>
+        <v>166.4997014452472</v>
       </c>
       <c r="N38" t="n">
-        <v>258.0873684357488</v>
+        <v>258.087368435749</v>
       </c>
       <c r="O38" t="n">
-        <v>336.991828086475</v>
+        <v>336.9918280864752</v>
       </c>
       <c r="P38" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="Q38" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="R38" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="S38" t="n">
-        <v>369.8339580202227</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="T38" t="n">
-        <v>287.7428264433762</v>
+        <v>369.8339580202229</v>
       </c>
       <c r="U38" t="n">
-        <v>287.7428264433762</v>
+        <v>276.3866904041615</v>
       </c>
       <c r="V38" t="n">
-        <v>194.2955588273148</v>
+        <v>182.9394227881</v>
       </c>
       <c r="W38" t="n">
-        <v>194.2955588273148</v>
+        <v>182.9394227881</v>
       </c>
       <c r="X38" t="n">
-        <v>194.2955588273148</v>
+        <v>89.49215517203861</v>
       </c>
       <c r="Y38" t="n">
-        <v>194.2955588273148</v>
+        <v>89.49215517203861</v>
       </c>
     </row>
     <row r="39">
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.401023595192062</v>
+        <v>73.71484560594612</v>
       </c>
       <c r="C39" t="n">
-        <v>7.401023595192062</v>
+        <v>73.71484560594612</v>
       </c>
       <c r="D39" t="n">
-        <v>7.401023595192062</v>
+        <v>73.71484560594612</v>
       </c>
       <c r="E39" t="n">
-        <v>7.401023595192062</v>
+        <v>73.71484560594612</v>
       </c>
       <c r="F39" t="n">
-        <v>7.401023595192062</v>
+        <v>73.71484560594612</v>
       </c>
       <c r="G39" t="n">
-        <v>7.401023595192062</v>
+        <v>73.71484560594612</v>
       </c>
       <c r="H39" t="n">
-        <v>7.401023595192062</v>
+        <v>73.71484560594612</v>
       </c>
       <c r="I39" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="J39" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="K39" t="n">
-        <v>28.20980753877658</v>
+        <v>28.20980753877661</v>
       </c>
       <c r="L39" t="n">
         <v>102.5123266695169</v>
@@ -7265,40 +7265,40 @@
         <v>134.55860133307</v>
       </c>
       <c r="N39" t="n">
-        <v>226.1462683235717</v>
+        <v>226.1462683235719</v>
       </c>
       <c r="O39" t="n">
-        <v>316.7038239319934</v>
+        <v>316.7038239319936</v>
       </c>
       <c r="P39" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="Q39" t="n">
-        <v>370.0511797596031</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="R39" t="n">
-        <v>287.7428264433762</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="S39" t="n">
-        <v>194.2955588273148</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="T39" t="n">
-        <v>100.8482912112535</v>
+        <v>370.0511797596033</v>
       </c>
       <c r="U39" t="n">
-        <v>7.401023595192062</v>
+        <v>276.6039121435418</v>
       </c>
       <c r="V39" t="n">
-        <v>7.401023595192062</v>
+        <v>183.1566445274804</v>
       </c>
       <c r="W39" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141897</v>
       </c>
       <c r="X39" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141897</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.401023595192062</v>
+        <v>89.70937691141897</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="C40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="D40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="E40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="F40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="G40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="H40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="I40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="J40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="K40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="L40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="M40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="N40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="O40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="P40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="R40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="S40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="T40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="U40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="V40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="W40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="X40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.401023595192062</v>
+        <v>7.401023595192065</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158.9479502229661</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="C41" t="n">
-        <v>158.9479502229661</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="D41" t="n">
-        <v>158.9479502229661</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="E41" t="n">
-        <v>158.9479502229661</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="F41" t="n">
-        <v>65.61378358544286</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="G41" t="n">
-        <v>65.61378358544286</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="H41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="I41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="J41" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="K41" t="n">
-        <v>21.05332062426909</v>
+        <v>21.05332062426911</v>
       </c>
       <c r="L41" t="n">
-        <v>74.90307685724508</v>
+        <v>74.90307685724513</v>
       </c>
       <c r="M41" t="n">
-        <v>166.3798935786816</v>
+        <v>166.3798935786817</v>
       </c>
       <c r="N41" t="n">
-        <v>257.8567103001181</v>
+        <v>257.8567103001183</v>
       </c>
       <c r="O41" t="n">
-        <v>336.7611699508443</v>
+        <v>336.7611699508446</v>
       </c>
       <c r="P41" t="n">
-        <v>369.603299884592</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="Q41" t="n">
-        <v>345.6162834980125</v>
+        <v>345.6162834980129</v>
       </c>
       <c r="R41" t="n">
-        <v>345.6162834980125</v>
+        <v>345.6162834980129</v>
       </c>
       <c r="S41" t="n">
-        <v>345.6162834980125</v>
+        <v>345.6162834980129</v>
       </c>
       <c r="T41" t="n">
-        <v>345.6162834980125</v>
+        <v>252.2821168604896</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2821168604893</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="V41" t="n">
-        <v>252.2821168604893</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="W41" t="n">
-        <v>252.2821168604893</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="X41" t="n">
-        <v>252.2821168604893</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="Y41" t="n">
-        <v>252.2821168604893</v>
+        <v>194.0603992727385</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.7262326352151</v>
+        <v>89.60079997202239</v>
       </c>
       <c r="C42" t="n">
-        <v>100.7262326352151</v>
+        <v>89.60079997202239</v>
       </c>
       <c r="D42" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202239</v>
       </c>
       <c r="E42" t="n">
-        <v>7.392065997691839</v>
+        <v>89.60079997202239</v>
       </c>
       <c r="F42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="G42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="H42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="I42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="J42" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="K42" t="n">
-        <v>28.20084994127635</v>
+        <v>28.20084994127639</v>
       </c>
       <c r="L42" t="n">
         <v>102.5033690720167</v>
       </c>
       <c r="M42" t="n">
-        <v>134.2215717271241</v>
+        <v>193.9801857934533</v>
       </c>
       <c r="N42" t="n">
-        <v>225.6983884485606</v>
+        <v>285.45700251489</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2559440569822</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="P42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="Q42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="R42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="S42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="T42" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="U42" t="n">
-        <v>276.2691332470687</v>
+        <v>369.6032998845923</v>
       </c>
       <c r="V42" t="n">
-        <v>194.0603992727383</v>
+        <v>276.269133247069</v>
       </c>
       <c r="W42" t="n">
-        <v>194.0603992727383</v>
+        <v>182.9349666095457</v>
       </c>
       <c r="X42" t="n">
-        <v>100.7262326352151</v>
+        <v>182.9349666095457</v>
       </c>
       <c r="Y42" t="n">
-        <v>100.7262326352151</v>
+        <v>182.9349666095457</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="C43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="D43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="E43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="F43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="G43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="H43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="I43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="J43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="K43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="L43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="M43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="N43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="O43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="P43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="Q43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="R43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="S43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="T43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="U43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="V43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="W43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="X43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
       <c r="Y43" t="n">
-        <v>369.6032998845919</v>
+        <v>7.392065997691847</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>158.947950222966</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="C44" t="n">
-        <v>158.947950222966</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="D44" t="n">
-        <v>125.9674770474328</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="E44" t="n">
-        <v>32.63331040990954</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="F44" t="n">
-        <v>32.63331040990954</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="G44" t="n">
-        <v>32.63331040990954</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="H44" t="n">
-        <v>32.63331040990954</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="I44" t="n">
-        <v>32.63331040990954</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J44" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K44" t="n">
-        <v>21.05332062426896</v>
+        <v>21.05332062426911</v>
       </c>
       <c r="L44" t="n">
-        <v>74.90307685724497</v>
+        <v>74.90307685724517</v>
       </c>
       <c r="M44" t="n">
-        <v>166.3798935786815</v>
+        <v>166.3798935786817</v>
       </c>
       <c r="N44" t="n">
-        <v>257.856710300118</v>
+        <v>257.8567103001184</v>
       </c>
       <c r="O44" t="n">
-        <v>336.7611699508442</v>
+        <v>336.7611699508447</v>
       </c>
       <c r="P44" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q44" t="n">
-        <v>345.6162834980125</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="R44" t="n">
-        <v>252.2821168604893</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="S44" t="n">
-        <v>252.2821168604893</v>
+        <v>276.269133247069</v>
       </c>
       <c r="T44" t="n">
-        <v>252.2821168604893</v>
+        <v>182.9349666095457</v>
       </c>
       <c r="U44" t="n">
-        <v>158.947950222966</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="V44" t="n">
-        <v>158.947950222966</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="W44" t="n">
-        <v>158.947950222966</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="X44" t="n">
-        <v>158.947950222966</v>
+        <v>89.60079997202234</v>
       </c>
       <c r="Y44" t="n">
-        <v>158.947950222966</v>
+        <v>89.60079997202234</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>168.3875716281075</v>
+        <v>100.7262326352152</v>
       </c>
       <c r="C45" t="n">
-        <v>168.3875716281075</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="D45" t="n">
-        <v>75.05340499058428</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="E45" t="n">
-        <v>75.05340499058428</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="F45" t="n">
-        <v>75.05340499058428</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="G45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="H45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="I45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J45" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K45" t="n">
-        <v>7.392065997691839</v>
+        <v>28.20084994127639</v>
       </c>
       <c r="L45" t="n">
-        <v>42.74475500568755</v>
+        <v>42.74475500568775</v>
       </c>
       <c r="M45" t="n">
-        <v>134.2215717271241</v>
+        <v>134.2215717271244</v>
       </c>
       <c r="N45" t="n">
-        <v>225.6983884485606</v>
+        <v>225.698388448561</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2559440569822</v>
+        <v>316.2559440569827</v>
       </c>
       <c r="P45" t="n">
-        <v>369.6032998845919</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="Q45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="R45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="S45" t="n">
-        <v>355.0559049031539</v>
+        <v>369.6032998845924</v>
       </c>
       <c r="T45" t="n">
-        <v>261.7217382656307</v>
+        <v>287.3945659102619</v>
       </c>
       <c r="U45" t="n">
-        <v>261.7217382656307</v>
+        <v>287.3945659102619</v>
       </c>
       <c r="V45" t="n">
-        <v>261.7217382656307</v>
+        <v>287.3945659102619</v>
       </c>
       <c r="W45" t="n">
-        <v>261.7217382656307</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="X45" t="n">
-        <v>261.7217382656307</v>
+        <v>194.0603992727385</v>
       </c>
       <c r="Y45" t="n">
-        <v>168.3875716281075</v>
+        <v>100.7262326352152</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="C46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="D46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="E46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="F46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="G46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="H46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="I46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="J46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="K46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="L46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="M46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="N46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="O46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="P46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="R46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="S46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="T46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="U46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="V46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="W46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="X46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.392065997691839</v>
+        <v>7.392065997691848</v>
       </c>
     </row>
   </sheetData>
@@ -22570,28 +22570,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K2" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L2" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P2" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
         <v>134.8218408634681</v>
@@ -22646,13 +22646,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K3" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
         <v>102.9682853879423</v>
@@ -22728,25 +22728,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K4" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M4" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q4" t="n">
         <v>103.2119976362414</v>
@@ -23044,28 +23044,28 @@
         <v>160.9084221286138</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L8" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P8" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R8" t="n">
         <v>134.8218408634681</v>
@@ -23120,13 +23120,13 @@
         <v>105.5916109993956</v>
       </c>
       <c r="I9" t="n">
-        <v>75.83750674330533</v>
+        <v>75.83750674330534</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K9" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23141,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R9" t="n">
         <v>102.9682853879423</v>
@@ -23202,25 +23202,25 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>86.2208375662932</v>
+        <v>86.22083756629321</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L10" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M10" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q10" t="n">
         <v>103.2119976362414</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>290.4449866610853</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>283.9848682848978</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23278,7 +23278,7 @@
         <v>320.6480129991093</v>
       </c>
       <c r="I11" t="n">
-        <v>139.6037023452183</v>
+        <v>139.6037023452182</v>
       </c>
       <c r="J11" t="n">
         <v>25.02000995425203</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.78681539902033</v>
+        <v>23.7868153990203</v>
       </c>
       <c r="R11" t="n">
         <v>100.1085899953345</v>
@@ -23311,22 +23311,22 @@
         <v>167.1291425025552</v>
       </c>
       <c r="T11" t="n">
-        <v>215.0485634068586</v>
+        <v>122.7597084044633</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1985865702964</v>
+        <v>158.9097315679011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>235.4634034677396</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>267.9529452313033</v>
       </c>
       <c r="X11" t="n">
-        <v>277.4422456760738</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>293.9490836536583</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>80.41964398592044</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>80.58405218081035</v>
+        <v>55.15621056224346</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>65.35622545300565</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>52.78035739098858</v>
       </c>
       <c r="G12" t="n">
         <v>136.3599243172687</v>
@@ -23360,7 +23360,7 @@
         <v>65.65745087436915</v>
       </c>
       <c r="J12" t="n">
-        <v>33.90967274370948</v>
+        <v>33.90967274370946</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>84.61046744136135</v>
+        <v>17.74945405753294</v>
       </c>
       <c r="S12" t="n">
-        <v>61.12451038844297</v>
+        <v>153.4133653908383</v>
       </c>
       <c r="T12" t="n">
         <v>196.2001592850822</v>
@@ -23399,7 +23399,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>159.4061281585243</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23439,25 +23439,25 @@
         <v>130.652167173172</v>
       </c>
       <c r="J13" t="n">
-        <v>68.69540952780942</v>
+        <v>68.6954095278094</v>
       </c>
       <c r="K13" t="n">
         <v>33.20842954380555</v>
       </c>
       <c r="L13" t="n">
-        <v>12.28748008706457</v>
+        <v>12.28748008706455</v>
       </c>
       <c r="M13" t="n">
         <v>9.664229956157271</v>
       </c>
       <c r="N13" t="n">
-        <v>1.49754131392298</v>
+        <v>1.497541313922952</v>
       </c>
       <c r="O13" t="n">
-        <v>21.90149342145185</v>
+        <v>21.90149342145183</v>
       </c>
       <c r="P13" t="n">
-        <v>37.99502751941262</v>
+        <v>37.9950275194126</v>
       </c>
       <c r="Q13" t="n">
         <v>82.45505824284109</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>326.4658281316229</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>262.3941866182877</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>314.5871907393162</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.4644082958837</v>
@@ -23515,10 +23515,10 @@
         <v>320.6480129991093</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31484734282299</v>
+        <v>139.6037023452182</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>25.02000995425203</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.78681539902033</v>
+        <v>23.7868153990203</v>
       </c>
       <c r="R14" t="n">
         <v>100.1085899953345</v>
@@ -23548,19 +23548,19 @@
         <v>167.1291425025552</v>
       </c>
       <c r="T14" t="n">
-        <v>215.0485634068586</v>
+        <v>122.7597084044633</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1985865702964</v>
+        <v>158.9097315679011</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>256.9521137150177</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>288.4430771923593</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>74.24432864747203</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>65.35622545300566</v>
+        <v>65.35622545300564</v>
       </c>
       <c r="F15" t="n">
-        <v>52.7803573909886</v>
+        <v>52.78035739098857</v>
       </c>
       <c r="G15" t="n">
-        <v>44.07106931487345</v>
+        <v>136.3599243172687</v>
       </c>
       <c r="H15" t="n">
-        <v>55.3576573240785</v>
+        <v>102.7360080664787</v>
       </c>
       <c r="I15" t="n">
         <v>65.65745087436915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.90967274370946</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.42701010228137</v>
+        <v>14.42701010228134</v>
       </c>
       <c r="R15" t="n">
         <v>84.61046744136135</v>
@@ -23636,7 +23636,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>170.4069596748099</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23676,25 +23676,25 @@
         <v>130.652167173172</v>
       </c>
       <c r="J16" t="n">
-        <v>68.69540952780942</v>
+        <v>68.6954095278094</v>
       </c>
       <c r="K16" t="n">
         <v>33.20842954380555</v>
       </c>
       <c r="L16" t="n">
-        <v>12.28748008706457</v>
+        <v>12.28748008706455</v>
       </c>
       <c r="M16" t="n">
         <v>9.664229956157271</v>
       </c>
       <c r="N16" t="n">
-        <v>1.49754131392298</v>
+        <v>1.497541313922952</v>
       </c>
       <c r="O16" t="n">
-        <v>21.90149342145185</v>
+        <v>21.90149342145183</v>
       </c>
       <c r="P16" t="n">
-        <v>37.99502751941262</v>
+        <v>37.9950275194126</v>
       </c>
       <c r="Q16" t="n">
         <v>82.45505824284109</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>325.4893991071243</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>321.0632159792825</v>
+        <v>321.0632159792824</v>
       </c>
       <c r="H17" t="n">
-        <v>228.2434259513389</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I17" t="n">
-        <v>47.18871528848661</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J17" t="n">
-        <v>24.98883196809547</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.74714622271358</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>100.0855147315114</v>
+        <v>7.684689760363355</v>
       </c>
       <c r="S17" t="n">
         <v>167.1207716180409</v>
@@ -23791,10 +23791,10 @@
         <v>251.1985571826601</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>235.3514334989868</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>291.6014683055395</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>74.13235867871926</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>63.68256575879664</v>
       </c>
       <c r="G18" t="n">
-        <v>136.3597277701237</v>
+        <v>43.95890279897559</v>
       </c>
       <c r="H18" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I18" t="n">
-        <v>65.6506837906465</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J18" t="n">
-        <v>33.89110334874522</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S18" t="n">
-        <v>61.00888964267551</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T18" t="n">
-        <v>103.7985420910117</v>
+        <v>103.7985420910116</v>
       </c>
       <c r="U18" t="n">
-        <v>151.0893727978656</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23913,28 +23913,28 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J19" t="n">
-        <v>68.68375968616429</v>
+        <v>68.68375968616431</v>
       </c>
       <c r="K19" t="n">
-        <v>33.18928527529268</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L19" t="n">
-        <v>12.26298201450903</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M19" t="n">
-        <v>9.638400173530727</v>
+        <v>9.638400173530755</v>
       </c>
       <c r="N19" t="n">
-        <v>1.472325705794859</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8782027260811</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P19" t="n">
-        <v>37.97509830593097</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.44126028843796</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R19" t="n">
         <v>140.2084641518275</v>
@@ -23977,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>289.5295451011136</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4640409504305</v>
+        <v>321.0632159792823</v>
       </c>
       <c r="H20" t="n">
-        <v>239.2576042878999</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I20" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J20" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.684689760363469</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S20" t="n">
-        <v>167.1207716180409</v>
+        <v>109.4812712061675</v>
       </c>
       <c r="T20" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809891</v>
       </c>
       <c r="U20" t="n">
         <v>251.1985571826601</v>
       </c>
       <c r="V20" t="n">
-        <v>235.3514334989869</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>277.3302757073211</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,13 +24050,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>80.30767401716759</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>76.25843382081365</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,10 +24068,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I21" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J21" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,28 +24092,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R21" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S21" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T21" t="n">
-        <v>103.7985420910117</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U21" t="n">
-        <v>133.4758341234395</v>
+        <v>133.4758341234394</v>
       </c>
       <c r="V21" t="n">
-        <v>140.3997621782773</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>184.7102575579561</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>113.3721602323293</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24153,31 +24153,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K22" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L22" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M22" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N22" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O22" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P22" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R22" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S22" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T22" t="n">
         <v>224.4215466066255</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4640409504305</v>
+        <v>320.9512460105296</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6442509224869</v>
+        <v>228.1314559825861</v>
       </c>
       <c r="I23" t="n">
-        <v>47.0767453197339</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J23" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R23" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S23" t="n">
-        <v>167.1207716180409</v>
+        <v>85.85055135696295</v>
       </c>
       <c r="T23" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122365</v>
       </c>
       <c r="U23" t="n">
         <v>251.1985571826601</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.9677183949755</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>54.93227062473792</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13228551550012</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>52.55641745348305</v>
       </c>
       <c r="G24" t="n">
-        <v>136.3597277701237</v>
+        <v>54.87445798705909</v>
       </c>
       <c r="H24" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I24" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J24" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R24" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S24" t="n">
         <v>153.4097146138236</v>
@@ -24344,16 +24344,16 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V24" t="n">
-        <v>151.3153173663607</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>159.1821882210188</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>113.2601902635767</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24390,31 +24390,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K25" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L25" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M25" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N25" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O25" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P25" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R25" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S25" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T25" t="n">
         <v>224.4215466066255</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>284.0026715099295</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24463,10 +24463,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I26" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J26" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R26" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S26" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T26" t="n">
-        <v>122.5341604122365</v>
+        <v>133.7767350910593</v>
       </c>
       <c r="U26" t="n">
-        <v>158.6857622427594</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>235.2394635302341</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>256.7281737775122</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>277.2183057385682</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24542,10 +24542,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I27" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J27" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,13 +24566,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.4019210316236</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>84.59826427738969</v>
+        <v>17.51491552594862</v>
       </c>
       <c r="S27" t="n">
-        <v>153.4097146138236</v>
+        <v>60.89691967392272</v>
       </c>
       <c r="T27" t="n">
         <v>196.1993670621597</v>
@@ -24581,16 +24581,16 @@
         <v>225.8766590945875</v>
       </c>
       <c r="V27" t="n">
-        <v>151.3153173663607</v>
+        <v>140.2877922095244</v>
       </c>
       <c r="W27" t="n">
-        <v>159.1821882210188</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>113.2601902635767</v>
+        <v>113.2601902635766</v>
       </c>
       <c r="Y27" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24627,31 +24627,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K28" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L28" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M28" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N28" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O28" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P28" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R28" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S28" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T28" t="n">
         <v>224.4215466066255</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>301.4636214024026</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,22 +24688,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>320.9512460105298</v>
+        <v>320.9512460105296</v>
       </c>
       <c r="H29" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I29" t="n">
-        <v>139.5895402596347</v>
+        <v>58.31931999855668</v>
       </c>
       <c r="J29" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R29" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S29" t="n">
-        <v>167.1207716180409</v>
+        <v>74.60797667814012</v>
       </c>
       <c r="T29" t="n">
-        <v>215.0469553521373</v>
+        <v>122.5341604122365</v>
       </c>
       <c r="U29" t="n">
         <v>251.1985571826601</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>277.2183057385682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>91.22322920525114</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>65.13228551550017</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,10 +24779,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I30" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J30" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R30" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S30" t="n">
         <v>153.4097146138236</v>
@@ -24815,19 +24815,19 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546867</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095244</v>
       </c>
       <c r="W30" t="n">
         <v>159.1821882210188</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>124.2877154204129</v>
       </c>
       <c r="Y30" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24864,31 +24864,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K31" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L31" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M31" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N31" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O31" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P31" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R31" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S31" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T31" t="n">
         <v>224.4215466066255</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>289.417575132361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,10 +24937,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I32" t="n">
-        <v>82.06646622127033</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J32" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S32" t="n">
         <v>167.1207716180409</v>
@@ -24973,19 +24973,19 @@
         <v>122.5341604122365</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427593</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>291.7178946790487</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>293.7251437161527</v>
       </c>
     </row>
     <row r="33">
@@ -24995,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74.02038870996657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>80.19570404841491</v>
       </c>
       <c r="D33" t="n">
-        <v>54.93227062473798</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>52.55641745348305</v>
       </c>
       <c r="G33" t="n">
         <v>136.3597277701237</v>
@@ -25016,10 +25016,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I33" t="n">
-        <v>10.1419866938161</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S33" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T33" t="n">
-        <v>196.1993670621597</v>
+        <v>103.6865721222589</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8766590945875</v>
+        <v>144.3913893115229</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25101,31 +25101,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K34" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L34" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M34" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N34" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O34" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P34" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R34" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S34" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T34" t="n">
         <v>224.4215466066255</v>
@@ -25156,7 +25156,7 @@
         <v>290.2210467235798</v>
       </c>
       <c r="C35" t="n">
-        <v>307.7498177326432</v>
+        <v>272.7600968311067</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25174,10 +25174,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I35" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J35" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R35" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S35" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T35" t="n">
-        <v>215.0469553521373</v>
+        <v>133.7767350910593</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427593</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>277.2183057385682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>293.7251437161528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>74.02038870996657</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>80.19570404841497</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>54.93227062473792</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13228551550012</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>52.55641745348305</v>
       </c>
       <c r="G36" t="n">
         <v>136.3597277701237</v>
@@ -25253,10 +25253,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I36" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J36" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,16 +25277,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R36" t="n">
-        <v>3.112994494325079</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S36" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T36" t="n">
-        <v>196.1993670621597</v>
+        <v>114.7140972790951</v>
       </c>
       <c r="U36" t="n">
         <v>225.8766590945875</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>113.1699008374036</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25338,31 +25338,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K37" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L37" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M37" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N37" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O37" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P37" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R37" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S37" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T37" t="n">
         <v>224.4215466066255</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>272.7600968311068</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4640409504305</v>
+        <v>332.1938206893524</v>
       </c>
       <c r="H38" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I38" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J38" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>23.74714622271364</v>
       </c>
       <c r="R38" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S38" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T38" t="n">
-        <v>133.7767350910593</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427593</v>
       </c>
       <c r="V38" t="n">
         <v>235.2394635302341</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>277.2183057385682</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>150.6985976574492</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25490,10 +25490,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I39" t="n">
-        <v>65.65068379064653</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,25 +25514,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R39" t="n">
-        <v>3.112994494325079</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S39" t="n">
-        <v>60.89691967392281</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T39" t="n">
-        <v>103.686572122259</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U39" t="n">
-        <v>133.3638641546868</v>
+        <v>133.3638641546867</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095245</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25575,31 +25575,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K40" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L40" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M40" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N40" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O40" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P40" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R40" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S40" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T40" t="n">
         <v>224.4215466066255</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>290.3330166923326</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,19 +25639,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>314.4752207705635</v>
+        <v>314.4752207705633</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4640409504305</v>
+        <v>321.0632159792824</v>
       </c>
       <c r="H41" t="n">
-        <v>263.0047505106135</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I41" t="n">
-        <v>139.5895402596347</v>
+        <v>139.5895402596346</v>
       </c>
       <c r="J41" t="n">
-        <v>24.98883196809552</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>100.0855147315115</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S41" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T41" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809892</v>
       </c>
       <c r="U41" t="n">
-        <v>158.7977322115121</v>
+        <v>193.5590567707866</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>74.13235867871926</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>55.04424059349077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>63.68256575879664</v>
       </c>
       <c r="G42" t="n">
         <v>136.3597277701237</v>
@@ -25727,10 +25727,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I42" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J42" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.4019210316236</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R42" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S42" t="n">
         <v>153.4097146138236</v>
@@ -25763,16 +25763,16 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U42" t="n">
-        <v>133.4758341234395</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V42" t="n">
-        <v>151.4139405148382</v>
+        <v>140.3997621782772</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>159.2941581897715</v>
       </c>
       <c r="X42" t="n">
-        <v>113.3721602323295</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25812,31 +25812,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K43" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L43" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M43" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N43" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O43" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P43" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R43" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S43" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T43" t="n">
         <v>224.4215466066255</v>
@@ -25870,10 +25870,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>322.032373176905</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>289.5295451011138</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25885,10 +25885,10 @@
         <v>320.6442509224869</v>
       </c>
       <c r="I44" t="n">
-        <v>139.5895402596347</v>
+        <v>58.20289362504745</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>24.9888319680955</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.74714622271364</v>
       </c>
       <c r="R44" t="n">
-        <v>7.684689760363469</v>
+        <v>100.0855147315114</v>
       </c>
       <c r="S44" t="n">
-        <v>167.1207716180409</v>
+        <v>74.71994664689285</v>
       </c>
       <c r="T44" t="n">
-        <v>215.0469553521373</v>
+        <v>122.6461303809892</v>
       </c>
       <c r="U44" t="n">
-        <v>158.7977322115121</v>
+        <v>158.797732211512</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25946,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>80.30767401716764</v>
       </c>
       <c r="D45" t="n">
-        <v>55.04424059349077</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25958,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>69.37500216716016</v>
+        <v>136.3597277701237</v>
       </c>
       <c r="H45" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I45" t="n">
-        <v>65.65068379064653</v>
+        <v>65.65068379064651</v>
       </c>
       <c r="J45" t="n">
-        <v>33.89110334874525</v>
+        <v>33.89110334874523</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,16 +25988,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>14.40192103162359</v>
       </c>
       <c r="R45" t="n">
-        <v>84.59826427738969</v>
+        <v>84.59826427738967</v>
       </c>
       <c r="S45" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T45" t="n">
-        <v>103.7985420910117</v>
+        <v>114.8127204275725</v>
       </c>
       <c r="U45" t="n">
         <v>225.8766590945875</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>159.2941581897715</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>113.2818708061564</v>
+        <v>113.2818708061563</v>
       </c>
     </row>
     <row r="46">
@@ -26049,31 +26049,31 @@
         <v>68.68375968616431</v>
       </c>
       <c r="K46" t="n">
-        <v>33.18928527529272</v>
+        <v>33.1892852752927</v>
       </c>
       <c r="L46" t="n">
-        <v>12.26298201450908</v>
+        <v>12.26298201450906</v>
       </c>
       <c r="M46" t="n">
         <v>9.638400173530755</v>
       </c>
       <c r="N46" t="n">
-        <v>1.472325705794901</v>
+        <v>1.472325705794887</v>
       </c>
       <c r="O46" t="n">
-        <v>21.87820272608114</v>
+        <v>21.87820272608113</v>
       </c>
       <c r="P46" t="n">
-        <v>37.97509830593101</v>
+        <v>37.975098305931</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.44126028843799</v>
+        <v>82.44126028843797</v>
       </c>
       <c r="R46" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S46" t="n">
-        <v>209.6430021026859</v>
+        <v>209.6430021026858</v>
       </c>
       <c r="T46" t="n">
         <v>224.4215466066255</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362305.0082603244</v>
+        <v>362305.0082603243</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>362397.7815214762</v>
+        <v>362397.7815214763</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362445.3425166903</v>
+        <v>362445.3425166904</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>362445.3425166904</v>
+        <v>362445.3425166903</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362397.7815214762</v>
+        <v>362397.7815214763</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81036.08369295007</v>
+        <v>81036.08369295005</v>
       </c>
       <c r="C2" t="n">
         <v>81036.08369295005</v>
       </c>
       <c r="D2" t="n">
-        <v>81036.08369295007</v>
+        <v>81036.08369295005</v>
       </c>
       <c r="E2" t="n">
         <v>116211.0403853869</v>
       </c>
       <c r="F2" t="n">
-        <v>116211.0403853869</v>
+        <v>116211.040385387</v>
       </c>
       <c r="G2" t="n">
-        <v>116240.7978465111</v>
+        <v>116240.7978465112</v>
       </c>
       <c r="H2" t="n">
-        <v>116240.7978465111</v>
+        <v>116240.7978465112</v>
       </c>
       <c r="I2" t="n">
         <v>116256.0532600704</v>
@@ -26355,7 +26355,7 @@
         <v>116240.7978465112</v>
       </c>
       <c r="P2" t="n">
-        <v>116240.7978465112</v>
+        <v>116240.7978465111</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308183.8838205544</v>
+        <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137993.7487653025</v>
+        <v>137993.7487653026</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101.733859581181</v>
+        <v>101.733859581056</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.77516606071025</v>
+        <v>29.77516606068002</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>22998.75182201691</v>
+        <v>22998.75182201694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>66.87306366112958</v>
       </c>
       <c r="F4" t="n">
-        <v>66.87306366112956</v>
+        <v>66.87306366112958</v>
       </c>
       <c r="G4" t="n">
         <v>66.95419777909372</v>
       </c>
       <c r="H4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909375</v>
       </c>
       <c r="I4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="J4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="L4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="M4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879317</v>
       </c>
       <c r="N4" t="n">
-        <v>67.00913363879313</v>
+        <v>67.00913363879316</v>
       </c>
       <c r="O4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.9541977790937</v>
       </c>
       <c r="P4" t="n">
-        <v>66.95419777909365</v>
+        <v>66.95419777909373</v>
       </c>
     </row>
     <row r="5">
@@ -26490,22 +26490,22 @@
         <v>15588.76195449727</v>
       </c>
       <c r="I5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="J5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="K5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="L5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="M5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="N5" t="n">
-        <v>15595.56972859743</v>
+        <v>15595.56972859744</v>
       </c>
       <c r="O5" t="n">
         <v>15588.76195449727</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-267747.5026908616</v>
+        <v>-283506.7184849422</v>
       </c>
       <c r="C6" t="n">
-        <v>40436.38112969272</v>
+        <v>24677.16533561212</v>
       </c>
       <c r="D6" t="n">
-        <v>40436.38112969274</v>
+        <v>24677.16533561212</v>
       </c>
       <c r="E6" t="n">
-        <v>-37429.54360141755</v>
+        <v>-51119.64429594314</v>
       </c>
       <c r="F6" t="n">
-        <v>100564.2051638849</v>
+        <v>86874.10446935944</v>
       </c>
       <c r="G6" t="n">
-        <v>100483.3478346536</v>
+        <v>86794.99757901789</v>
       </c>
       <c r="H6" t="n">
-        <v>100585.0816942348</v>
+        <v>86896.73143859897</v>
       </c>
       <c r="I6" t="n">
-        <v>100563.6992317735</v>
+        <v>86876.24635340585</v>
       </c>
       <c r="J6" t="n">
-        <v>100593.4743978342</v>
+        <v>86906.02151946651</v>
       </c>
       <c r="K6" t="n">
-        <v>100593.4743978342</v>
+        <v>86906.02151946651</v>
       </c>
       <c r="L6" t="n">
-        <v>100593.4743978341</v>
+        <v>86906.02151946654</v>
       </c>
       <c r="M6" t="n">
-        <v>77594.72257581727</v>
+        <v>63907.26969744958</v>
       </c>
       <c r="N6" t="n">
-        <v>100593.4743978342</v>
+        <v>86906.02151946655</v>
       </c>
       <c r="O6" t="n">
-        <v>100585.0816942348</v>
+        <v>86896.73143859894</v>
       </c>
       <c r="P6" t="n">
-        <v>100585.0816942348</v>
+        <v>86896.73143859893</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>457.2843932887732</v>
       </c>
       <c r="G3" t="n">
-        <v>457.3757704702509</v>
+        <v>457.3757704702508</v>
       </c>
       <c r="H3" t="n">
         <v>457.3757704702508</v>
@@ -26801,37 +26801,37 @@
         <v>92.28885500239529</v>
       </c>
       <c r="F4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="G4" t="n">
-        <v>92.40082497114804</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="H4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="I4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="J4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="K4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="L4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="M4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N4" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="O4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="P4" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.4631747907305</v>
+        <v>137.4631747907306</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09137718147773626</v>
+        <v>0.09137718147758554</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687527316</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1119699687527884</v>
+        <v>0.1119699687526747</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.11196996875276</v>
+        <v>0.1119699687527316</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,16 +31047,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K2" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M2" t="n">
         <v>225.7600302817866</v>
@@ -31074,13 +31074,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S2" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T2" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1028570752958528</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H3" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I3" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K3" t="n">
         <v>111.0835641645513</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R3" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S3" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I4" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L4" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M4" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N4" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R4" t="n">
         <v>25.93173355231669</v>
@@ -31521,16 +31521,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I8" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L8" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M8" t="n">
         <v>225.7600302817866</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S8" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T8" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H9" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I9" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31621,22 +31621,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R9" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S9" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,37 +31673,37 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K10" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L10" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M10" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N10" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R10" t="n">
         <v>25.93173355231669</v>
@@ -31758,7 +31758,7 @@
         <v>18.82678911665787</v>
       </c>
       <c r="I11" t="n">
-        <v>70.87218722518766</v>
+        <v>70.87218722518767</v>
       </c>
       <c r="J11" t="n">
         <v>156.0258945724343</v>
@@ -31791,7 +31791,7 @@
         <v>41.89092708369014</v>
       </c>
       <c r="T11" t="n">
-        <v>8.047286157272779</v>
+        <v>8.047286157272781</v>
       </c>
       <c r="U11" t="n">
         <v>0.1470663375401078</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9835928459418894</v>
+        <v>0.9835928459418897</v>
       </c>
       <c r="H12" t="n">
-        <v>9.499436170017724</v>
+        <v>9.499436170017725</v>
       </c>
       <c r="I12" t="n">
         <v>33.86492912563085</v>
       </c>
       <c r="J12" t="n">
-        <v>92.92795392295722</v>
+        <v>92.92795392295723</v>
       </c>
       <c r="K12" t="n">
         <v>158.8286746010638</v>
       </c>
       <c r="L12" t="n">
-        <v>213.5647536769879</v>
+        <v>153.1418105814819</v>
       </c>
       <c r="M12" t="n">
         <v>234.4228889244136</v>
@@ -31855,16 +31855,16 @@
         <v>223.6305670857286</v>
       </c>
       <c r="O12" t="n">
-        <v>173.5988161755891</v>
+        <v>234.0217592710951</v>
       </c>
       <c r="P12" t="n">
         <v>187.8230935377982</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.5547639837401</v>
+        <v>125.5547639837402</v>
       </c>
       <c r="R12" t="n">
-        <v>61.0690365226026</v>
+        <v>61.06903652260261</v>
       </c>
       <c r="S12" t="n">
         <v>18.26980571299956</v>
@@ -31873,7 +31873,7 @@
         <v>3.964569409739457</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0647100556540717</v>
+        <v>0.06471005565407172</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8246112010125417</v>
+        <v>0.8246112010125418</v>
       </c>
       <c r="H13" t="n">
-        <v>7.331543223547876</v>
+        <v>7.331543223547877</v>
       </c>
       <c r="I13" t="n">
         <v>24.79830775408626</v>
       </c>
       <c r="J13" t="n">
-        <v>58.30001191158669</v>
+        <v>58.3000119115867</v>
       </c>
       <c r="K13" t="n">
         <v>95.80482862672983</v>
@@ -31934,10 +31934,10 @@
         <v>126.1880031513102</v>
       </c>
       <c r="O13" t="n">
-        <v>116.5550450303909</v>
+        <v>116.555045030391</v>
       </c>
       <c r="P13" t="n">
-        <v>99.732976529735</v>
+        <v>99.73297652973501</v>
       </c>
       <c r="Q13" t="n">
         <v>69.04994338660475</v>
@@ -31949,10 +31949,10 @@
         <v>14.37072429400947</v>
       </c>
       <c r="T13" t="n">
-        <v>3.523338767962677</v>
+        <v>3.523338767962678</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04497879278250232</v>
+        <v>0.04497879278250233</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>18.82678911665787</v>
       </c>
       <c r="I14" t="n">
-        <v>70.87218722518766</v>
+        <v>70.87218722518767</v>
       </c>
       <c r="J14" t="n">
         <v>156.0258945724343</v>
@@ -32010,7 +32010,7 @@
         <v>322.635088229668</v>
       </c>
       <c r="N14" t="n">
-        <v>321.7019185989862</v>
+        <v>321.7019185989863</v>
       </c>
       <c r="O14" t="n">
         <v>309.7377922401358</v>
@@ -32028,7 +32028,7 @@
         <v>41.89092708369014</v>
       </c>
       <c r="T14" t="n">
-        <v>8.047286157272779</v>
+        <v>8.047286157272781</v>
       </c>
       <c r="U14" t="n">
         <v>0.1470663375401078</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9835928459418894</v>
+        <v>0.9835928459418897</v>
       </c>
       <c r="H15" t="n">
-        <v>9.499436170017724</v>
+        <v>9.499436170017725</v>
       </c>
       <c r="I15" t="n">
         <v>33.86492912563085</v>
       </c>
       <c r="J15" t="n">
-        <v>92.92795392295722</v>
+        <v>92.92795392295723</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32092,16 +32092,16 @@
         <v>223.6305670857286</v>
       </c>
       <c r="O15" t="n">
-        <v>194.586051802294</v>
+        <v>194.5860518022939</v>
       </c>
       <c r="P15" t="n">
         <v>187.8230935377982</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.5547639837401</v>
+        <v>125.5547639837402</v>
       </c>
       <c r="R15" t="n">
-        <v>61.0690365226026</v>
+        <v>61.06903652260261</v>
       </c>
       <c r="S15" t="n">
         <v>18.26980571299956</v>
@@ -32110,7 +32110,7 @@
         <v>3.964569409739457</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0647100556540717</v>
+        <v>0.06471005565407172</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8246112010125417</v>
+        <v>0.8246112010125418</v>
       </c>
       <c r="H16" t="n">
-        <v>7.331543223547876</v>
+        <v>7.331543223547877</v>
       </c>
       <c r="I16" t="n">
         <v>24.79830775408626</v>
       </c>
       <c r="J16" t="n">
-        <v>58.30001191158669</v>
+        <v>58.3000119115867</v>
       </c>
       <c r="K16" t="n">
         <v>95.80482862672983</v>
@@ -32171,10 +32171,10 @@
         <v>126.1880031513102</v>
       </c>
       <c r="O16" t="n">
-        <v>116.5550450303909</v>
+        <v>116.555045030391</v>
       </c>
       <c r="P16" t="n">
-        <v>99.732976529735</v>
+        <v>99.73297652973501</v>
       </c>
       <c r="Q16" t="n">
         <v>69.04994338660475</v>
@@ -32186,10 +32186,10 @@
         <v>14.37072429400947</v>
       </c>
       <c r="T16" t="n">
-        <v>3.523338767962677</v>
+        <v>3.523338767962678</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04497879278250232</v>
+        <v>0.04497879278250233</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.838696564704525</v>
       </c>
       <c r="H17" t="n">
-        <v>18.83055119328022</v>
+        <v>18.83055119328021</v>
       </c>
       <c r="I17" t="n">
-        <v>70.88634931077127</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J17" t="n">
         <v>156.0570725585908</v>
@@ -32241,34 +32241,34 @@
         <v>233.8890981425334</v>
       </c>
       <c r="L17" t="n">
-        <v>290.1601081346096</v>
+        <v>290.1601081346095</v>
       </c>
       <c r="M17" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984208</v>
       </c>
       <c r="N17" t="n">
         <v>321.813888567739</v>
       </c>
       <c r="O17" t="n">
-        <v>309.7996858163598</v>
+        <v>309.7996858163597</v>
       </c>
       <c r="P17" t="n">
         <v>264.4068643752167</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.5585436517359</v>
+        <v>198.5585436517358</v>
       </c>
       <c r="R17" t="n">
         <v>115.5000230826207</v>
       </c>
       <c r="S17" t="n">
-        <v>41.8992979682044</v>
+        <v>41.89929796820439</v>
       </c>
       <c r="T17" t="n">
-        <v>8.048894211994062</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U17" t="n">
-        <v>0.147095725176362</v>
+        <v>0.1470957251763619</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9837893930869549</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H18" t="n">
-        <v>9.501334401655592</v>
+        <v>9.501334401655589</v>
       </c>
       <c r="I18" t="n">
         <v>33.87169620935349</v>
       </c>
       <c r="J18" t="n">
-        <v>92.94652331792147</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K18" t="n">
         <v>158.8604126547474</v>
       </c>
       <c r="L18" t="n">
-        <v>213.6074294068847</v>
+        <v>213.6074294068846</v>
       </c>
       <c r="M18" t="n">
         <v>234.5348588931664</v>
       </c>
       <c r="N18" t="n">
-        <v>223.7425370544813</v>
+        <v>223.7425370544814</v>
       </c>
       <c r="O18" t="n">
-        <v>173.706286406154</v>
+        <v>173.7062864061542</v>
       </c>
       <c r="P18" t="n">
-        <v>187.8606254220169</v>
+        <v>187.8606254220168</v>
       </c>
       <c r="Q18" t="n">
-        <v>125.579853054398</v>
+        <v>125.5798530543979</v>
       </c>
       <c r="R18" t="n">
-        <v>61.08123968657429</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S18" t="n">
-        <v>18.27345649001426</v>
+        <v>18.27345649001425</v>
       </c>
       <c r="T18" t="n">
-        <v>3.965361632661891</v>
+        <v>3.96536163266189</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06472298638729969</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8247759795365179</v>
+        <v>0.8247759795365177</v>
       </c>
       <c r="H19" t="n">
-        <v>7.333008254424684</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I19" t="n">
         <v>24.8032630936982</v>
       </c>
       <c r="J19" t="n">
-        <v>58.31166175323182</v>
+        <v>58.3116617532318</v>
       </c>
       <c r="K19" t="n">
-        <v>95.8239728952427</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L19" t="n">
         <v>122.6216942667292</v>
@@ -32411,13 +32411,13 @@
         <v>116.5783357257617</v>
       </c>
       <c r="P19" t="n">
-        <v>99.75290574321664</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.06374134100788</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R19" t="n">
-        <v>37.08492722534197</v>
+        <v>37.08492722534196</v>
       </c>
       <c r="S19" t="n">
         <v>14.3735959342864</v>
@@ -32426,7 +32426,7 @@
         <v>3.52404282165603</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04498778070199194</v>
+        <v>0.04498778070199193</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,28 +32463,28 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H20" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I20" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J20" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K20" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L20" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M20" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984209</v>
       </c>
       <c r="N20" t="n">
-        <v>321.8138885677389</v>
+        <v>321.8138885677391</v>
       </c>
       <c r="O20" t="n">
         <v>309.7996858163597</v>
@@ -32502,7 +32502,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T20" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U20" t="n">
         <v>0.1470957251763619</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H21" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I21" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J21" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K21" t="n">
         <v>158.8604126547474</v>
@@ -32560,13 +32560,13 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M21" t="n">
-        <v>234.5348588931663</v>
+        <v>174.1726224625313</v>
       </c>
       <c r="N21" t="n">
-        <v>223.7425370544813</v>
+        <v>223.7425370544815</v>
       </c>
       <c r="O21" t="n">
-        <v>173.7062864061541</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P21" t="n">
         <v>187.8606254220168</v>
@@ -32575,7 +32575,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R21" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S21" t="n">
         <v>18.27345649001425</v>
@@ -32584,7 +32584,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,7 +32624,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H22" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I22" t="n">
         <v>24.8032630936982</v>
@@ -32633,7 +32633,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K22" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L22" t="n">
         <v>122.6216942667292</v>
@@ -32645,13 +32645,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O22" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P22" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R22" t="n">
         <v>37.08492722534196</v>
@@ -32660,7 +32660,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T22" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U22" t="n">
         <v>0.04498778070199193</v>
@@ -32700,28 +32700,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H23" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I23" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J23" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K23" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L23" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M23" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N23" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O23" t="n">
         <v>309.7996858163597</v>
@@ -32739,7 +32739,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T23" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U23" t="n">
         <v>0.1470957251763619</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H24" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I24" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J24" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K24" t="n">
         <v>158.8604126547474</v>
@@ -32797,13 +32797,13 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M24" t="n">
-        <v>234.6468288619191</v>
+        <v>174.5040083296478</v>
       </c>
       <c r="N24" t="n">
         <v>223.8545070232341</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9257023045182</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P24" t="n">
         <v>187.8606254220168</v>
@@ -32812,7 +32812,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R24" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S24" t="n">
         <v>18.27345649001425</v>
@@ -32821,7 +32821,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,7 +32861,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H25" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I25" t="n">
         <v>24.8032630936982</v>
@@ -32870,7 +32870,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K25" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L25" t="n">
         <v>122.6216942667292</v>
@@ -32882,13 +32882,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O25" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P25" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R25" t="n">
         <v>37.08492722534196</v>
@@ -32897,7 +32897,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T25" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U25" t="n">
         <v>0.04498778070199193</v>
@@ -32937,28 +32937,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H26" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I26" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J26" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K26" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L26" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M26" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N26" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O26" t="n">
         <v>309.7996858163597</v>
@@ -32976,7 +32976,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T26" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U26" t="n">
         <v>0.1470957251763619</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H27" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I27" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J27" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K27" t="n">
         <v>158.8604126547474</v>
@@ -33049,7 +33049,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R27" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S27" t="n">
         <v>18.27345649001425</v>
@@ -33058,7 +33058,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,7 +33098,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H28" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I28" t="n">
         <v>24.8032630936982</v>
@@ -33107,7 +33107,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K28" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L28" t="n">
         <v>122.6216942667292</v>
@@ -33119,13 +33119,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O28" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P28" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R28" t="n">
         <v>37.08492722534196</v>
@@ -33134,7 +33134,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T28" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U28" t="n">
         <v>0.04498778070199193</v>
@@ -33174,28 +33174,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H29" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I29" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J29" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K29" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L29" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M29" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N29" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O29" t="n">
         <v>309.7996858163597</v>
@@ -33213,7 +33213,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T29" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U29" t="n">
         <v>0.1470957251763619</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H30" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I30" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J30" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K30" t="n">
         <v>158.8604126547474</v>
       </c>
       <c r="L30" t="n">
-        <v>153.4646088746132</v>
+        <v>213.6074294068846</v>
       </c>
       <c r="M30" t="n">
-        <v>234.6468288619191</v>
+        <v>174.5040083296478</v>
       </c>
       <c r="N30" t="n">
         <v>223.8545070232341</v>
@@ -33286,7 +33286,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R30" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S30" t="n">
         <v>18.27345649001425</v>
@@ -33295,7 +33295,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,7 +33335,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H31" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I31" t="n">
         <v>24.8032630936982</v>
@@ -33344,7 +33344,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K31" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L31" t="n">
         <v>122.6216942667292</v>
@@ -33356,13 +33356,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O31" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P31" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R31" t="n">
         <v>37.08492722534196</v>
@@ -33371,7 +33371,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T31" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U31" t="n">
         <v>0.04498778070199193</v>
@@ -33411,28 +33411,28 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H32" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I32" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J32" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K32" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L32" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M32" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N32" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O32" t="n">
         <v>309.7996858163597</v>
@@ -33450,7 +33450,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T32" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U32" t="n">
         <v>0.1470957251763619</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H33" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I33" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J33" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K33" t="n">
         <v>158.8604126547474</v>
@@ -33511,10 +33511,10 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N33" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9257023045182</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P33" t="n">
         <v>187.8606254220168</v>
@@ -33523,7 +33523,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R33" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S33" t="n">
         <v>18.27345649001425</v>
@@ -33532,7 +33532,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,7 +33572,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H34" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I34" t="n">
         <v>24.8032630936982</v>
@@ -33581,7 +33581,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K34" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L34" t="n">
         <v>122.6216942667292</v>
@@ -33593,13 +33593,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O34" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P34" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R34" t="n">
         <v>37.08492722534196</v>
@@ -33608,7 +33608,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T34" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U34" t="n">
         <v>0.04498778070199193</v>
@@ -33648,28 +33648,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H35" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I35" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J35" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K35" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L35" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M35" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N35" t="n">
-        <v>321.9258585364917</v>
+        <v>321.9258585364918</v>
       </c>
       <c r="O35" t="n">
         <v>309.7996858163597</v>
@@ -33687,7 +33687,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T35" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U35" t="n">
         <v>0.1470957251763619</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H36" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I36" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J36" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K36" t="n">
         <v>158.8604126547474</v>
@@ -33748,10 +33748,10 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N36" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9257023045182</v>
+        <v>234.0685228367896</v>
       </c>
       <c r="P36" t="n">
         <v>187.8606254220168</v>
@@ -33760,7 +33760,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R36" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S36" t="n">
         <v>18.27345649001425</v>
@@ -33769,7 +33769,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,7 +33809,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H37" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I37" t="n">
         <v>24.8032630936982</v>
@@ -33818,7 +33818,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K37" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L37" t="n">
         <v>122.6216942667292</v>
@@ -33830,13 +33830,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O37" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P37" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R37" t="n">
         <v>37.08492722534196</v>
@@ -33845,7 +33845,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T37" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U37" t="n">
         <v>0.04498778070199193</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H38" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I38" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J38" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K38" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L38" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M38" t="n">
-        <v>322.8590281671735</v>
+        <v>322.8590281671736</v>
       </c>
       <c r="N38" t="n">
         <v>321.9258585364917</v>
@@ -33924,7 +33924,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T38" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U38" t="n">
         <v>0.1470957251763619</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H39" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I39" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J39" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K39" t="n">
         <v>158.8604126547474</v>
@@ -33997,7 +33997,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R39" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S39" t="n">
         <v>18.27345649001425</v>
@@ -34006,7 +34006,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,7 +34046,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H40" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I40" t="n">
         <v>24.8032630936982</v>
@@ -34055,7 +34055,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K40" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L40" t="n">
         <v>122.6216942667292</v>
@@ -34067,13 +34067,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O40" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P40" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R40" t="n">
         <v>37.08492722534196</v>
@@ -34082,7 +34082,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T40" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U40" t="n">
         <v>0.04498778070199193</v>
@@ -34122,28 +34122,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H41" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I41" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J41" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K41" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L41" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984208</v>
       </c>
       <c r="N41" t="n">
-        <v>321.8138885677389</v>
+        <v>321.813888567739</v>
       </c>
       <c r="O41" t="n">
         <v>309.7996858163597</v>
@@ -34161,7 +34161,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T41" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U41" t="n">
         <v>0.1470957251763619</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H42" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I42" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J42" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K42" t="n">
         <v>158.8604126547474</v>
@@ -34219,22 +34219,22 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M42" t="n">
-        <v>174.1726224625309</v>
+        <v>234.5348588931664</v>
       </c>
       <c r="N42" t="n">
-        <v>223.7425370544813</v>
+        <v>223.7425370544814</v>
       </c>
       <c r="O42" t="n">
-        <v>234.0685228367896</v>
+        <v>227.5925044138408</v>
       </c>
       <c r="P42" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R42" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S42" t="n">
         <v>18.27345649001425</v>
@@ -34243,7 +34243,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,7 +34283,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H43" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I43" t="n">
         <v>24.8032630936982</v>
@@ -34292,7 +34292,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K43" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L43" t="n">
         <v>122.6216942667292</v>
@@ -34304,13 +34304,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O43" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P43" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R43" t="n">
         <v>37.08492722534196</v>
@@ -34319,7 +34319,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T43" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U43" t="n">
         <v>0.04498778070199193</v>
@@ -34359,28 +34359,28 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.838696564704524</v>
+        <v>1.838696564704525</v>
       </c>
       <c r="H44" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I44" t="n">
-        <v>70.88634931077124</v>
+        <v>70.88634931077125</v>
       </c>
       <c r="J44" t="n">
         <v>156.0570725585908</v>
       </c>
       <c r="K44" t="n">
-        <v>233.8890981425333</v>
+        <v>233.8890981425334</v>
       </c>
       <c r="L44" t="n">
         <v>290.1601081346095</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7470581984207</v>
+        <v>322.7470581984209</v>
       </c>
       <c r="N44" t="n">
-        <v>321.8138885677389</v>
+        <v>321.813888567739</v>
       </c>
       <c r="O44" t="n">
         <v>309.7996858163597</v>
@@ -34398,7 +34398,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T44" t="n">
-        <v>8.048894211994059</v>
+        <v>8.04889421199406</v>
       </c>
       <c r="U44" t="n">
         <v>0.1470957251763619</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9837893930869545</v>
+        <v>0.9837893930869546</v>
       </c>
       <c r="H45" t="n">
         <v>9.501334401655589</v>
       </c>
       <c r="I45" t="n">
-        <v>33.87169620935348</v>
+        <v>33.87169620935349</v>
       </c>
       <c r="J45" t="n">
-        <v>92.94652331792145</v>
+        <v>92.94652331792146</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>158.8604126547474</v>
       </c>
       <c r="L45" t="n">
-        <v>174.2641666566375</v>
+        <v>153.2451929762493</v>
       </c>
       <c r="M45" t="n">
-        <v>234.5348588931663</v>
+        <v>234.5348588931664</v>
       </c>
       <c r="N45" t="n">
-        <v>223.7425370544813</v>
+        <v>223.7425370544814</v>
       </c>
       <c r="O45" t="n">
         <v>234.0685228367896</v>
@@ -34471,7 +34471,7 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R45" t="n">
-        <v>61.08123968657426</v>
+        <v>61.08123968657428</v>
       </c>
       <c r="S45" t="n">
         <v>18.27345649001425</v>
@@ -34480,7 +34480,7 @@
         <v>3.96536163266189</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06472298638729966</v>
+        <v>0.06472298638729967</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,7 +34520,7 @@
         <v>0.8247759795365177</v>
       </c>
       <c r="H46" t="n">
-        <v>7.333008254424681</v>
+        <v>7.333008254424682</v>
       </c>
       <c r="I46" t="n">
         <v>24.8032630936982</v>
@@ -34529,7 +34529,7 @@
         <v>58.3116617532318</v>
       </c>
       <c r="K46" t="n">
-        <v>95.82397289524266</v>
+        <v>95.82397289524268</v>
       </c>
       <c r="L46" t="n">
         <v>122.6216942667292</v>
@@ -34541,13 +34541,13 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O46" t="n">
-        <v>116.5783357257616</v>
+        <v>116.5783357257617</v>
       </c>
       <c r="P46" t="n">
-        <v>99.7529057432166</v>
+        <v>99.75290574321662</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.06374134100786</v>
+        <v>69.06374134100787</v>
       </c>
       <c r="R46" t="n">
         <v>37.08492722534196</v>
@@ -34556,7 +34556,7 @@
         <v>14.3735959342864</v>
       </c>
       <c r="T46" t="n">
-        <v>3.524042821656029</v>
+        <v>3.52404282165603</v>
       </c>
       <c r="U46" t="n">
         <v>0.04498778070199193</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.7525193783633</v>
+        <v>13.75251937836333</v>
       </c>
       <c r="L11" t="n">
         <v>54.33572329702014</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>20.9872356267048</v>
+        <v>20.98723562670483</v>
       </c>
       <c r="L12" t="n">
-        <v>75.01037389711374</v>
+        <v>14.5874308016077</v>
       </c>
       <c r="M12" t="n">
         <v>92.28885500239529</v>
@@ -35503,10 +35503,10 @@
         <v>92.28885500239529</v>
       </c>
       <c r="O12" t="n">
-        <v>31.00257173114468</v>
+        <v>91.42551482665067</v>
       </c>
       <c r="P12" t="n">
-        <v>53.84868612346796</v>
+        <v>53.84868612346798</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.7525193783633</v>
+        <v>13.75251937836333</v>
       </c>
       <c r="L14" t="n">
         <v>54.33572329702014</v>
       </c>
       <c r="M14" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="N14" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="O14" t="n">
         <v>79.6395808184491</v>
@@ -35731,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>75.01037389711374</v>
+        <v>75.01037389711377</v>
       </c>
       <c r="M15" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="N15" t="n">
-        <v>92.28885500239528</v>
+        <v>92.28885500239531</v>
       </c>
       <c r="O15" t="n">
-        <v>51.98980735784951</v>
+        <v>51.98980735784945</v>
       </c>
       <c r="P15" t="n">
-        <v>53.84868612346796</v>
+        <v>53.84868612346798</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.79924709755286</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L17" t="n">
-        <v>54.39369316462233</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M17" t="n">
-        <v>92.40082497114804</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="N17" t="n">
-        <v>92.40082497114804</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="O17" t="n">
-        <v>79.70147439467306</v>
+        <v>79.70147439467294</v>
       </c>
       <c r="P17" t="n">
-        <v>33.1738686199472</v>
+        <v>33.17386861994714</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.01897368038846</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L18" t="n">
-        <v>75.05304962701049</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M18" t="n">
-        <v>92.40082497114804</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="N18" t="n">
-        <v>92.40082497114804</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="O18" t="n">
-        <v>31.11004196170954</v>
+        <v>31.11004196170978</v>
       </c>
       <c r="P18" t="n">
-        <v>53.88621800768661</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L20" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M20" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="N20" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="O20" t="n">
         <v>79.70147439467294</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L21" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M21" t="n">
-        <v>92.40082497114798</v>
+        <v>32.03858854051293</v>
       </c>
       <c r="N21" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114815</v>
       </c>
       <c r="O21" t="n">
-        <v>31.11004196170966</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P21" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,16 +36360,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L23" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M23" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N23" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O23" t="n">
         <v>79.70147439467294</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L24" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M24" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762946</v>
       </c>
       <c r="N24" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O24" t="n">
-        <v>31.32945786007372</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P24" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L26" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M26" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N26" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O26" t="n">
         <v>79.70147439467294</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L27" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M27" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N27" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O27" t="n">
-        <v>31.32945786007372</v>
+        <v>31.32945786007378</v>
       </c>
       <c r="P27" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L29" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M29" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N29" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O29" t="n">
         <v>79.70147439467294</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L30" t="n">
-        <v>14.91022909473901</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M30" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762946</v>
       </c>
       <c r="N30" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O30" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P30" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,16 +37071,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L32" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N32" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O32" t="n">
         <v>79.70147439467294</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L33" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M33" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N33" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762946</v>
       </c>
       <c r="O33" t="n">
-        <v>31.32945786007372</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P33" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L35" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M35" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N35" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="O35" t="n">
         <v>79.70147439467294</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L36" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M36" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990083</v>
       </c>
       <c r="N36" t="n">
-        <v>92.51279493990077</v>
+        <v>32.36997440762946</v>
       </c>
       <c r="O36" t="n">
-        <v>31.32945786007372</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P36" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L38" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M38" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="N38" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="O38" t="n">
         <v>79.70147439467294</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L39" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M39" t="n">
-        <v>32.36997440762937</v>
+        <v>32.3699744076294</v>
       </c>
       <c r="N39" t="n">
-        <v>92.51279493990077</v>
+        <v>92.51279493990081</v>
       </c>
       <c r="O39" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P39" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L41" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M41" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="N41" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="O41" t="n">
         <v>79.70147439467294</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.0189736803884</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L42" t="n">
-        <v>75.05304962701041</v>
+        <v>75.05304962701044</v>
       </c>
       <c r="M42" t="n">
-        <v>32.03858854051253</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="N42" t="n">
-        <v>92.40082497114798</v>
+        <v>92.40082497114808</v>
       </c>
       <c r="O42" t="n">
-        <v>91.47227839234512</v>
+        <v>84.99625996939635</v>
       </c>
       <c r="P42" t="n">
-        <v>53.88621800768655</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>13.79924709755278</v>
+        <v>13.79924709755281</v>
       </c>
       <c r="L44" t="n">
-        <v>54.39369316462222</v>
+        <v>54.39369316462228</v>
       </c>
       <c r="M44" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="N44" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="O44" t="n">
         <v>79.70147439467294</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>21.01897368038843</v>
       </c>
       <c r="L45" t="n">
-        <v>35.70978687676335</v>
+        <v>14.69081319637511</v>
       </c>
       <c r="M45" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="N45" t="n">
-        <v>92.40082497114798</v>
+        <v>92.4008249711481</v>
       </c>
       <c r="O45" t="n">
-        <v>91.47227839234512</v>
+        <v>91.47227839234515</v>
       </c>
       <c r="P45" t="n">
-        <v>53.88621800768655</v>
+        <v>53.88621800768658</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_20_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>170555.0311696914</v>
+        <v>278727.2755545562</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21153596.70640421</v>
+        <v>21153596.7064042</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3873719.519114952</v>
+        <v>3873719.51911495</v>
       </c>
     </row>
     <row r="11">
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="T11" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="U11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>81.28802348610976</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>81.28802348610962</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>92.28885500239529</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1493,22 +1493,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.42701010228134</v>
+        <v>14.42701010228141</v>
       </c>
       <c r="R12" t="n">
-        <v>66.86101338382841</v>
+        <v>84.61046744136138</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>74.53940094486201</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>56.2680135318576</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>25.02000995425209</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="U14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>81.28802348610978</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>66.86101338382822</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92.28885500239531</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>14.4270101022814</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1745,13 +1745,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="W15" t="n">
-        <v>81.28802348610971</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>92.40082497114808</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>92.40082497114808</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="V17" t="n">
-        <v>92.40082497114808</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="W17" t="n">
-        <v>57.63950041187357</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.40082497114808</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>81.38664663458724</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="G18" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>92.40082497114808</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>92.40082497114815</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="S20" t="n">
-        <v>57.63950041187345</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="T20" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>57.63950041187347</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>81.38664663458714</v>
       </c>
       <c r="C21" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>81.38664663458729</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2216,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>92.40082497114815</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="X21" t="n">
-        <v>92.40082497114815</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="G23" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="H23" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,16 +2362,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="S23" t="n">
-        <v>81.27022026107799</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>57.52307403836419</v>
       </c>
     </row>
     <row r="24">
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>81.48526978306458</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>81.4852697830646</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>81.27022026107787</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>81.27022026107799</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="V26" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2678,28 +2678,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.40192103162359</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>67.08334875144105</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="V27" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>81.4852697830646</v>
       </c>
       <c r="X27" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>81.27022026107797</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2836,22 +2836,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="S29" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="T29" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>57.52307403836417</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>81.4852697830646</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>81.48526978306458</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>57.52307403836419</v>
       </c>
       <c r="W32" t="n">
-        <v>57.52307403836434</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="F33" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>81.48526978306461</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>81.48526978306458</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>57.52307403836419</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>81.27022026107799</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3350,19 +3350,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>92.51279493990083</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>81.4852697830646</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>81.48526978306461</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3517,16 +3517,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>81.27022026107808</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>56.28138829298231</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>92.51279493990081</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>92.51279493990081</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>92.51279493990081</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
     </row>
     <row r="39">
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.83458599241812</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.65068379064651</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,19 +3635,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="U39" t="n">
-        <v>92.51279493990081</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>92.51279493990081</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>92.51279493990081</v>
+        <v>81.48526978306461</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>57.63950041187334</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>92.40082497114808</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>92.40082497114808</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>92.40082497114808</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>57.63950041187356</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92.40082497114808</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>81.38664663458724</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="V42" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="W42" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>81.38664663458719</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>57.63950041187345</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>81.38664663458722</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="W45" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>81.38664663458708</v>
       </c>
       <c r="Y45" t="n">
-        <v>92.4008249711481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="C11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="D11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="E11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="F11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="G11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="H11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="I11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="J11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="K11" t="n">
-        <v>20.99810258477137</v>
+        <v>20.99810258477126</v>
       </c>
       <c r="L11" t="n">
-        <v>74.7904686488213</v>
+        <v>74.79046864882108</v>
       </c>
       <c r="M11" t="n">
-        <v>166.1564351011925</v>
+        <v>166.1564351011924</v>
       </c>
       <c r="N11" t="n">
-        <v>257.5224015535638</v>
+        <v>257.5224015535637</v>
       </c>
       <c r="O11" t="n">
-        <v>336.3655865638286</v>
+        <v>336.3655865638282</v>
       </c>
       <c r="P11" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="Q11" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="R11" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="S11" t="n">
-        <v>369.1554200095812</v>
+        <v>275.9343543505956</v>
       </c>
       <c r="T11" t="n">
-        <v>275.934354350596</v>
+        <v>182.7132886916106</v>
       </c>
       <c r="U11" t="n">
-        <v>182.7132886916109</v>
+        <v>182.7132886916106</v>
       </c>
       <c r="V11" t="n">
-        <v>89.49222303262574</v>
+        <v>182.7132886916106</v>
       </c>
       <c r="W11" t="n">
-        <v>7.383108400191624</v>
+        <v>89.49222303262559</v>
       </c>
       <c r="X11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>287.0463053771471</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="C12" t="n">
-        <v>287.0463053771471</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="D12" t="n">
-        <v>193.8252397181619</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="E12" t="n">
-        <v>100.6041740591768</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="F12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="G12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="H12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="I12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="J12" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="K12" t="n">
-        <v>28.16047167062941</v>
+        <v>28.16047167062931</v>
       </c>
       <c r="L12" t="n">
-        <v>42.60202816422103</v>
+        <v>102.4207418287718</v>
       </c>
       <c r="M12" t="n">
-        <v>133.9679946165924</v>
+        <v>193.786708281143</v>
       </c>
       <c r="N12" t="n">
-        <v>225.3339610689637</v>
+        <v>278.6441603311966</v>
       </c>
       <c r="O12" t="n">
-        <v>315.8452207473479</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="P12" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095807</v>
       </c>
       <c r="Q12" t="n">
-        <v>354.5826825325293</v>
+        <v>354.5826825325287</v>
       </c>
       <c r="R12" t="n">
-        <v>287.0463053771471</v>
+        <v>269.117563904891</v>
       </c>
       <c r="S12" t="n">
-        <v>287.0463053771471</v>
+        <v>175.8964982459059</v>
       </c>
       <c r="T12" t="n">
-        <v>287.0463053771471</v>
+        <v>175.8964982459059</v>
       </c>
       <c r="U12" t="n">
-        <v>287.0463053771471</v>
+        <v>82.67543258692092</v>
       </c>
       <c r="V12" t="n">
-        <v>287.0463053771471</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="W12" t="n">
-        <v>287.0463053771471</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="X12" t="n">
-        <v>287.0463053771471</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="Y12" t="n">
-        <v>287.0463053771471</v>
+        <v>7.383108400191613</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="C13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="D13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="E13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="F13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="G13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="H13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="I13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="J13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="K13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="L13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="M13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="N13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="O13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="P13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="R13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="S13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="T13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="U13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="V13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="W13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="X13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.383108400191624</v>
+        <v>7.383108400191613</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.383108400191625</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="C14" t="n">
-        <v>7.383108400191625</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="D14" t="n">
-        <v>7.383108400191625</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="E14" t="n">
-        <v>7.383108400191625</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="F14" t="n">
-        <v>7.383108400191625</v>
+        <v>125.876911386704</v>
       </c>
       <c r="G14" t="n">
-        <v>7.383108400191625</v>
+        <v>32.65584572771898</v>
       </c>
       <c r="H14" t="n">
-        <v>7.383108400191625</v>
+        <v>32.65584572771898</v>
       </c>
       <c r="I14" t="n">
-        <v>7.383108400191625</v>
+        <v>32.65584572771898</v>
       </c>
       <c r="J14" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="K14" t="n">
-        <v>20.9981025847712</v>
+        <v>20.99810258477132</v>
       </c>
       <c r="L14" t="n">
-        <v>74.79046864882113</v>
+        <v>74.79046864882118</v>
       </c>
       <c r="M14" t="n">
-        <v>166.1564351011925</v>
+        <v>166.1564351011924</v>
       </c>
       <c r="N14" t="n">
-        <v>257.5224015535639</v>
+        <v>257.5224015535637</v>
       </c>
       <c r="O14" t="n">
-        <v>336.3655865638286</v>
+        <v>336.3655865638282</v>
       </c>
       <c r="P14" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="Q14" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="R14" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="S14" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="T14" t="n">
-        <v>275.9343543505961</v>
+        <v>275.9343543505958</v>
       </c>
       <c r="U14" t="n">
-        <v>182.7132886916109</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="V14" t="n">
-        <v>182.7132886916109</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="W14" t="n">
-        <v>89.49222303262576</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="X14" t="n">
-        <v>7.383108400191625</v>
+        <v>182.7132886916107</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.383108400191625</v>
+        <v>182.7132886916107</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.825239718162</v>
+        <v>74.91948555557366</v>
       </c>
       <c r="C15" t="n">
-        <v>193.825239718162</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="D15" t="n">
-        <v>193.825239718162</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="E15" t="n">
-        <v>100.6041740591768</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="F15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="G15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="H15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="I15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="J15" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="K15" t="n">
-        <v>7.383108400191625</v>
+        <v>28.16047167062934</v>
       </c>
       <c r="L15" t="n">
-        <v>81.64337855833426</v>
+        <v>102.4207418287719</v>
       </c>
       <c r="M15" t="n">
-        <v>173.0093450107056</v>
+        <v>193.7867082811431</v>
       </c>
       <c r="N15" t="n">
-        <v>264.375311463077</v>
+        <v>225.3339610689635</v>
       </c>
       <c r="O15" t="n">
-        <v>315.8452207473479</v>
+        <v>315.8452207473476</v>
       </c>
       <c r="P15" t="n">
-        <v>369.1554200095812</v>
+        <v>369.1554200095808</v>
       </c>
       <c r="Q15" t="n">
-        <v>369.1554200095812</v>
+        <v>354.5826825325288</v>
       </c>
       <c r="R15" t="n">
-        <v>369.1554200095812</v>
+        <v>354.5826825325288</v>
       </c>
       <c r="S15" t="n">
-        <v>369.1554200095812</v>
+        <v>354.5826825325288</v>
       </c>
       <c r="T15" t="n">
-        <v>369.1554200095812</v>
+        <v>354.5826825325288</v>
       </c>
       <c r="U15" t="n">
-        <v>369.1554200095812</v>
+        <v>354.5826825325288</v>
       </c>
       <c r="V15" t="n">
-        <v>369.1554200095812</v>
+        <v>261.3616168735438</v>
       </c>
       <c r="W15" t="n">
-        <v>287.0463053771472</v>
+        <v>168.1405512145587</v>
       </c>
       <c r="X15" t="n">
-        <v>287.0463053771472</v>
+        <v>74.91948555557366</v>
       </c>
       <c r="Y15" t="n">
-        <v>287.0463053771472</v>
+        <v>74.91948555557366</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="C16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="D16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="E16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="F16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="G16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="H16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="I16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="J16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="K16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="L16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="M16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="N16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="O16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="P16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="R16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="S16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="T16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="U16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="V16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="W16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="X16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.383108400191625</v>
+        <v>7.383108400191616</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="C17" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="D17" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="E17" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="F17" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="G17" t="n">
-        <v>7.392065997691847</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="H17" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I17" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J17" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K17" t="n">
         <v>21.05332062426911</v>
       </c>
       <c r="L17" t="n">
-        <v>74.90307685724513</v>
+        <v>74.90307685724511</v>
       </c>
       <c r="M17" t="n">
-        <v>166.3798935786817</v>
+        <v>166.3798935786816</v>
       </c>
       <c r="N17" t="n">
-        <v>257.8567103001183</v>
+        <v>257.8567103001182</v>
       </c>
       <c r="O17" t="n">
-        <v>336.7611699508446</v>
+        <v>336.7611699508443</v>
       </c>
       <c r="P17" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="Q17" t="n">
-        <v>345.6162834980129</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R17" t="n">
-        <v>252.2821168604896</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S17" t="n">
-        <v>252.2821168604896</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="T17" t="n">
-        <v>252.2821168604896</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="U17" t="n">
-        <v>252.2821168604896</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="V17" t="n">
-        <v>158.9479502229663</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="W17" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="X17" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="Y17" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>182.9349666095457</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="C18" t="n">
-        <v>182.9349666095457</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="D18" t="n">
-        <v>182.9349666095457</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="E18" t="n">
-        <v>182.9349666095457</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="F18" t="n">
-        <v>100.7262326352152</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="G18" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H18" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I18" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J18" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K18" t="n">
-        <v>28.20084994127639</v>
+        <v>28.20084994127632</v>
       </c>
       <c r="L18" t="n">
-        <v>102.5033690720167</v>
+        <v>102.5033690720166</v>
       </c>
       <c r="M18" t="n">
-        <v>193.9801857934533</v>
+        <v>187.5689275547338</v>
       </c>
       <c r="N18" t="n">
-        <v>285.45700251489</v>
+        <v>279.0457442761703</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2559440569826</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="P18" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="Q18" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R18" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S18" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="T18" t="n">
-        <v>276.269133247069</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="U18" t="n">
-        <v>276.269133247069</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="V18" t="n">
-        <v>276.269133247069</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="W18" t="n">
-        <v>276.269133247069</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="X18" t="n">
-        <v>276.269133247069</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="Y18" t="n">
-        <v>276.269133247069</v>
+        <v>194.0603992727383</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="L19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="M19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="N19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="O19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="P19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="R19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="S19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="T19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="U19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="V19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="W19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="X19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>194.0603992727387</v>
+        <v>100.726232635215</v>
       </c>
       <c r="C20" t="n">
-        <v>194.0603992727387</v>
+        <v>100.726232635215</v>
       </c>
       <c r="D20" t="n">
-        <v>194.0603992727387</v>
+        <v>100.726232635215</v>
       </c>
       <c r="E20" t="n">
-        <v>100.7262326352153</v>
+        <v>100.726232635215</v>
       </c>
       <c r="F20" t="n">
-        <v>100.7262326352153</v>
+        <v>100.726232635215</v>
       </c>
       <c r="G20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J20" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K20" t="n">
-        <v>21.05332062426913</v>
+        <v>21.05332062426908</v>
       </c>
       <c r="L20" t="n">
-        <v>74.9030768572452</v>
+        <v>74.90307685724503</v>
       </c>
       <c r="M20" t="n">
-        <v>166.3798935786819</v>
+        <v>166.3798935786816</v>
       </c>
       <c r="N20" t="n">
-        <v>257.8567103001186</v>
+        <v>257.8567103001182</v>
       </c>
       <c r="O20" t="n">
-        <v>336.7611699508448</v>
+        <v>336.7611699508442</v>
       </c>
       <c r="P20" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="Q20" t="n">
-        <v>345.616283498013</v>
+        <v>345.6162834980124</v>
       </c>
       <c r="R20" t="n">
-        <v>345.616283498013</v>
+        <v>252.2821168604892</v>
       </c>
       <c r="S20" t="n">
-        <v>287.394565910262</v>
+        <v>158.947950222966</v>
       </c>
       <c r="T20" t="n">
-        <v>194.0603992727387</v>
+        <v>158.947950222966</v>
       </c>
       <c r="U20" t="n">
-        <v>194.0603992727387</v>
+        <v>100.726232635215</v>
       </c>
       <c r="V20" t="n">
-        <v>194.0603992727387</v>
+        <v>100.726232635215</v>
       </c>
       <c r="W20" t="n">
-        <v>194.0603992727387</v>
+        <v>100.726232635215</v>
       </c>
       <c r="X20" t="n">
-        <v>194.0603992727387</v>
+        <v>100.726232635215</v>
       </c>
       <c r="Y20" t="n">
-        <v>194.0603992727387</v>
+        <v>100.726232635215</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>182.9349666095459</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="C21" t="n">
-        <v>89.60079997202246</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="D21" t="n">
-        <v>89.60079997202246</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="E21" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="F21" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="G21" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H21" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I21" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J21" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K21" t="n">
-        <v>28.2008499412764</v>
+        <v>28.20084994127632</v>
       </c>
       <c r="L21" t="n">
-        <v>102.5033690720167</v>
+        <v>102.5033690720166</v>
       </c>
       <c r="M21" t="n">
-        <v>134.2215717271245</v>
+        <v>193.9801857934531</v>
       </c>
       <c r="N21" t="n">
-        <v>225.6983884485612</v>
+        <v>225.6983884485606</v>
       </c>
       <c r="O21" t="n">
-        <v>316.2559440569829</v>
+        <v>316.2559440569822</v>
       </c>
       <c r="P21" t="n">
-        <v>369.6032998845926</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="Q21" t="n">
-        <v>369.6032998845926</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R21" t="n">
-        <v>369.6032998845926</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S21" t="n">
-        <v>369.6032998845926</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="T21" t="n">
-        <v>369.6032998845926</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="U21" t="n">
-        <v>276.2691332470692</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="V21" t="n">
-        <v>276.2691332470692</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="W21" t="n">
-        <v>276.2691332470692</v>
+        <v>89.60079997202227</v>
       </c>
       <c r="X21" t="n">
-        <v>182.9349666095459</v>
+        <v>89.60079997202227</v>
       </c>
       <c r="Y21" t="n">
-        <v>182.9349666095459</v>
+        <v>89.60079997202227</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="C22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="D22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="E22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="F22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="G22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="H22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="I22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="J22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="K22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="L22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="M22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="N22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="O22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="P22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="R22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="S22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="T22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="U22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="V22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="W22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="X22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.392065997691852</v>
+        <v>7.392065997691837</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>194.295558827315</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="C23" t="n">
-        <v>194.295558827315</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="D23" t="n">
-        <v>194.295558827315</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="E23" t="n">
-        <v>194.295558827315</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="F23" t="n">
-        <v>194.295558827315</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G23" t="n">
-        <v>100.8482912112535</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J23" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K23" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L23" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M23" t="n">
-        <v>166.4997014452472</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N23" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357488</v>
       </c>
       <c r="O23" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P23" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q23" t="n">
-        <v>369.8339580202229</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="R23" t="n">
-        <v>369.8339580202229</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="S23" t="n">
-        <v>287.7428264433764</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="T23" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="U23" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="V23" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="W23" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="X23" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.295558827315</v>
+        <v>194.2955588273148</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>370.0511797596033</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C24" t="n">
-        <v>370.0511797596033</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D24" t="n">
-        <v>276.6039121435418</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E24" t="n">
-        <v>183.1566445274804</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F24" t="n">
+        <v>7.401023595192062</v>
+      </c>
+      <c r="G24" t="n">
+        <v>7.401023595192062</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7.401023595192062</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7.401023595192062</v>
+      </c>
+      <c r="J24" t="n">
+        <v>7.401023595192062</v>
+      </c>
+      <c r="K24" t="n">
+        <v>28.20980753877655</v>
+      </c>
+      <c r="L24" t="n">
+        <v>102.5123266695168</v>
+      </c>
+      <c r="M24" t="n">
+        <v>194.0999936600186</v>
+      </c>
+      <c r="N24" t="n">
+        <v>226.1462683235718</v>
+      </c>
+      <c r="O24" t="n">
+        <v>316.7038239319934</v>
+      </c>
+      <c r="P24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="R24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="S24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="T24" t="n">
+        <v>370.0511797596031</v>
+      </c>
+      <c r="U24" t="n">
+        <v>276.6039121435417</v>
+      </c>
+      <c r="V24" t="n">
+        <v>183.1566445274803</v>
+      </c>
+      <c r="W24" t="n">
         <v>89.70937691141893</v>
       </c>
-      <c r="G24" t="n">
-        <v>7.401023595192067</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7.401023595192067</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.401023595192067</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7.401023595192067</v>
-      </c>
-      <c r="K24" t="n">
-        <v>28.20980753877661</v>
-      </c>
-      <c r="L24" t="n">
-        <v>102.5123266695169</v>
-      </c>
-      <c r="M24" t="n">
-        <v>134.5586013330701</v>
-      </c>
-      <c r="N24" t="n">
-        <v>226.1462683235719</v>
-      </c>
-      <c r="O24" t="n">
-        <v>316.7038239319936</v>
-      </c>
-      <c r="P24" t="n">
-        <v>370.0511797596033</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>370.0511797596033</v>
-      </c>
-      <c r="R24" t="n">
-        <v>370.0511797596033</v>
-      </c>
-      <c r="S24" t="n">
-        <v>370.0511797596033</v>
-      </c>
-      <c r="T24" t="n">
-        <v>370.0511797596033</v>
-      </c>
-      <c r="U24" t="n">
-        <v>370.0511797596033</v>
-      </c>
-      <c r="V24" t="n">
-        <v>370.0511797596033</v>
-      </c>
-      <c r="W24" t="n">
-        <v>370.0511797596033</v>
-      </c>
       <c r="X24" t="n">
-        <v>370.0511797596033</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="Y24" t="n">
-        <v>370.0511797596033</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.401023595192067</v>
+        <v>182.9394227880998</v>
       </c>
       <c r="C26" t="n">
-        <v>7.401023595192067</v>
+        <v>182.9394227880998</v>
       </c>
       <c r="D26" t="n">
-        <v>7.401023595192067</v>
+        <v>182.9394227880998</v>
       </c>
       <c r="E26" t="n">
-        <v>7.401023595192067</v>
+        <v>182.9394227880998</v>
       </c>
       <c r="F26" t="n">
-        <v>7.401023595192067</v>
+        <v>89.49215517203839</v>
       </c>
       <c r="G26" t="n">
-        <v>7.401023595192067</v>
+        <v>89.49215517203839</v>
       </c>
       <c r="H26" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I26" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J26" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K26" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L26" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M26" t="n">
-        <v>166.4997014452472</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N26" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357488</v>
       </c>
       <c r="O26" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P26" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q26" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="R26" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="S26" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="T26" t="n">
-        <v>287.7428264433764</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="U26" t="n">
-        <v>287.7428264433764</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="V26" t="n">
-        <v>194.295558827315</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="W26" t="n">
-        <v>100.8482912112535</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="X26" t="n">
-        <v>7.401023595192067</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.401023595192067</v>
+        <v>276.3866904041612</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K27" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L27" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M27" t="n">
-        <v>194.0999936600188</v>
+        <v>194.0999936600186</v>
       </c>
       <c r="N27" t="n">
-        <v>285.6876606505206</v>
+        <v>226.1462683235718</v>
       </c>
       <c r="O27" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319934</v>
       </c>
       <c r="P27" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="Q27" t="n">
-        <v>355.5037847781654</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="R27" t="n">
-        <v>287.7428264433764</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="S27" t="n">
-        <v>194.295558827315</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="T27" t="n">
-        <v>194.295558827315</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="U27" t="n">
-        <v>194.295558827315</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="V27" t="n">
-        <v>100.8482912112535</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="W27" t="n">
         <v>100.8482912112535</v>
       </c>
       <c r="X27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G29" t="n">
-        <v>89.49215517203851</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H29" t="n">
-        <v>89.49215517203851</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I29" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J29" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K29" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L29" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M29" t="n">
-        <v>166.4997014452472</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N29" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357488</v>
       </c>
       <c r="O29" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P29" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q29" t="n">
-        <v>369.8339580202229</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="R29" t="n">
-        <v>369.8339580202229</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="S29" t="n">
-        <v>276.3866904041614</v>
+        <v>158.9524064015203</v>
       </c>
       <c r="T29" t="n">
-        <v>182.9394227881</v>
+        <v>65.50513878545891</v>
       </c>
       <c r="U29" t="n">
-        <v>182.9394227881</v>
+        <v>65.50513878545891</v>
       </c>
       <c r="V29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y29" t="n">
-        <v>182.9394227881</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.401023595192067</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="C30" t="n">
-        <v>7.401023595192067</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="D30" t="n">
-        <v>7.401023595192067</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="E30" t="n">
-        <v>7.401023595192067</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="F30" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G30" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="H30" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I30" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J30" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K30" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L30" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M30" t="n">
-        <v>134.5586013330701</v>
+        <v>134.55860133307</v>
       </c>
       <c r="N30" t="n">
-        <v>226.1462683235719</v>
+        <v>226.1462683235718</v>
       </c>
       <c r="O30" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319934</v>
       </c>
       <c r="P30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="Q30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="R30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="S30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="T30" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="U30" t="n">
-        <v>276.6039121435418</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="V30" t="n">
-        <v>183.1566445274804</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="W30" t="n">
-        <v>89.70937691141893</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="X30" t="n">
-        <v>7.401023595192067</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.401023595192067</v>
+        <v>370.0511797596031</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="32">
@@ -6676,67 +6676,67 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="C32" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="D32" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="E32" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="F32" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G32" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H32" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I32" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J32" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K32" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L32" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M32" t="n">
-        <v>166.4997014452472</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N32" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357488</v>
       </c>
       <c r="O32" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P32" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q32" t="n">
-        <v>345.8469416336434</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="R32" t="n">
-        <v>345.8469416336434</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="S32" t="n">
-        <v>345.8469416336434</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="T32" t="n">
-        <v>252.399674017582</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="U32" t="n">
-        <v>158.9524064015205</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="V32" t="n">
-        <v>158.9524064015205</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="W32" t="n">
         <v>100.8482912112535</v>
@@ -6745,7 +6745,7 @@
         <v>100.8482912112535</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="C33" t="n">
-        <v>100.8482912112535</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="D33" t="n">
-        <v>100.8482912112535</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="E33" t="n">
         <v>100.8482912112535</v>
       </c>
       <c r="F33" t="n">
-        <v>7.401023595192067</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="G33" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H33" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I33" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J33" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K33" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L33" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M33" t="n">
-        <v>194.0999936600188</v>
+        <v>194.0999936600186</v>
       </c>
       <c r="N33" t="n">
-        <v>226.1462683235719</v>
+        <v>226.1462683235718</v>
       </c>
       <c r="O33" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319934</v>
       </c>
       <c r="P33" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="Q33" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="R33" t="n">
-        <v>370.0511797596033</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="S33" t="n">
-        <v>370.0511797596033</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="T33" t="n">
-        <v>276.6039121435418</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="U33" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="V33" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="W33" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="X33" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433762</v>
       </c>
       <c r="Y33" t="n">
-        <v>194.295558827315</v>
+        <v>287.7428264433762</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>252.3996740175817</v>
+      </c>
+      <c r="C35" t="n">
+        <v>252.3996740175817</v>
+      </c>
+      <c r="D35" t="n">
+        <v>194.2955588273148</v>
+      </c>
+      <c r="E35" t="n">
+        <v>194.2955588273148</v>
+      </c>
+      <c r="F35" t="n">
         <v>100.8482912112535</v>
       </c>
-      <c r="C35" t="n">
-        <v>7.401023595192067</v>
-      </c>
-      <c r="D35" t="n">
-        <v>7.401023595192067</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7.401023595192067</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7.401023595192067</v>
-      </c>
       <c r="G35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J35" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K35" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L35" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M35" t="n">
-        <v>166.4997014452472</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N35" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357488</v>
       </c>
       <c r="O35" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P35" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q35" t="n">
-        <v>369.8339580202229</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="R35" t="n">
-        <v>369.8339580202229</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="S35" t="n">
-        <v>369.8339580202229</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="T35" t="n">
-        <v>287.7428264433764</v>
+        <v>345.8469416336431</v>
       </c>
       <c r="U35" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="V35" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="W35" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="X35" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
       <c r="Y35" t="n">
-        <v>194.295558827315</v>
+        <v>252.3996740175817</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>287.7428264433764</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="C36" t="n">
-        <v>287.7428264433764</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="D36" t="n">
-        <v>194.295558827315</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="E36" t="n">
-        <v>100.8482912112535</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="F36" t="n">
-        <v>7.401023595192067</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="G36" t="n">
-        <v>7.401023595192067</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="H36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J36" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K36" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L36" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M36" t="n">
-        <v>194.0999936600188</v>
+        <v>194.0999936600186</v>
       </c>
       <c r="N36" t="n">
-        <v>226.1462683235719</v>
+        <v>226.1462683235718</v>
       </c>
       <c r="O36" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319934</v>
       </c>
       <c r="P36" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="Q36" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="R36" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="S36" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="T36" t="n">
-        <v>287.7428264433764</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="U36" t="n">
-        <v>287.7428264433764</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="V36" t="n">
-        <v>287.7428264433764</v>
+        <v>183.1566445274803</v>
       </c>
       <c r="W36" t="n">
-        <v>287.7428264433764</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="X36" t="n">
-        <v>287.7428264433764</v>
+        <v>89.70937691141893</v>
       </c>
       <c r="Y36" t="n">
-        <v>287.7428264433764</v>
+        <v>89.70937691141893</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.401023595192067</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>89.49215517203861</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="C38" t="n">
-        <v>89.49215517203861</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="D38" t="n">
-        <v>89.49215517203861</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="E38" t="n">
-        <v>89.49215517203861</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="F38" t="n">
-        <v>89.49215517203861</v>
+        <v>276.3866904041612</v>
       </c>
       <c r="G38" t="n">
-        <v>7.401023595192065</v>
+        <v>182.9394227880998</v>
       </c>
       <c r="H38" t="n">
-        <v>7.401023595192065</v>
+        <v>126.0895356234712</v>
       </c>
       <c r="I38" t="n">
-        <v>7.401023595192065</v>
+        <v>32.6422680074098</v>
       </c>
       <c r="J38" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K38" t="n">
-        <v>21.06227822176935</v>
+        <v>21.06227822176929</v>
       </c>
       <c r="L38" t="n">
-        <v>74.9120344547454</v>
+        <v>74.91203445474522</v>
       </c>
       <c r="M38" t="n">
-        <v>166.4997014452472</v>
+        <v>166.499701445247</v>
       </c>
       <c r="N38" t="n">
-        <v>258.087368435749</v>
+        <v>258.0873684357488</v>
       </c>
       <c r="O38" t="n">
-        <v>336.9918280864752</v>
+        <v>336.9918280864749</v>
       </c>
       <c r="P38" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Q38" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="R38" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="S38" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="T38" t="n">
-        <v>369.8339580202229</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="U38" t="n">
-        <v>276.3866904041615</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="V38" t="n">
-        <v>182.9394227881</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="W38" t="n">
-        <v>182.9394227881</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="X38" t="n">
-        <v>89.49215517203861</v>
+        <v>369.8339580202226</v>
       </c>
       <c r="Y38" t="n">
-        <v>89.49215517203861</v>
+        <v>276.3866904041612</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.71484560594612</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="C39" t="n">
-        <v>73.71484560594612</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D39" t="n">
-        <v>73.71484560594612</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E39" t="n">
-        <v>73.71484560594612</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F39" t="n">
-        <v>73.71484560594612</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G39" t="n">
-        <v>73.71484560594612</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H39" t="n">
-        <v>73.71484560594612</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I39" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J39" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K39" t="n">
-        <v>28.20980753877661</v>
+        <v>28.20980753877655</v>
       </c>
       <c r="L39" t="n">
-        <v>102.5123266695169</v>
+        <v>102.5123266695168</v>
       </c>
       <c r="M39" t="n">
-        <v>134.55860133307</v>
+        <v>194.0999936600186</v>
       </c>
       <c r="N39" t="n">
-        <v>226.1462683235719</v>
+        <v>226.1462683235718</v>
       </c>
       <c r="O39" t="n">
-        <v>316.7038239319936</v>
+        <v>316.7038239319934</v>
       </c>
       <c r="P39" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="Q39" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="R39" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="S39" t="n">
-        <v>370.0511797596033</v>
+        <v>370.0511797596031</v>
       </c>
       <c r="T39" t="n">
-        <v>370.0511797596033</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="U39" t="n">
-        <v>276.6039121435418</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="V39" t="n">
-        <v>183.1566445274804</v>
+        <v>276.6039121435417</v>
       </c>
       <c r="W39" t="n">
-        <v>89.70937691141897</v>
+        <v>194.2955588273148</v>
       </c>
       <c r="X39" t="n">
-        <v>89.70937691141897</v>
+        <v>100.8482912112535</v>
       </c>
       <c r="Y39" t="n">
-        <v>89.70937691141897</v>
+        <v>100.8482912112535</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="C40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="D40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="E40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="F40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="G40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="H40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="I40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="J40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="K40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="L40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="M40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="N40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="O40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="P40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="R40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="S40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="T40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="U40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="V40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="W40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="X40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
       <c r="Y40" t="n">
-        <v>7.401023595192065</v>
+        <v>7.401023595192062</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>194.0603992727385</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="C41" t="n">
-        <v>194.0603992727385</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="D41" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E41" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F41" t="n">
-        <v>100.7262326352152</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G41" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H41" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I41" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J41" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K41" t="n">
-        <v>21.05332062426911</v>
+        <v>21.05332062426906</v>
       </c>
       <c r="L41" t="n">
-        <v>74.90307685724513</v>
+        <v>74.903076857245</v>
       </c>
       <c r="M41" t="n">
-        <v>166.3798935786817</v>
+        <v>166.3798935786815</v>
       </c>
       <c r="N41" t="n">
-        <v>257.8567103001183</v>
+        <v>257.856710300118</v>
       </c>
       <c r="O41" t="n">
-        <v>336.7611699508446</v>
+        <v>336.7611699508442</v>
       </c>
       <c r="P41" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845918</v>
       </c>
       <c r="Q41" t="n">
-        <v>345.6162834980129</v>
+        <v>345.6162834980124</v>
       </c>
       <c r="R41" t="n">
-        <v>345.6162834980129</v>
+        <v>345.6162834980124</v>
       </c>
       <c r="S41" t="n">
-        <v>345.6162834980129</v>
+        <v>345.6162834980124</v>
       </c>
       <c r="T41" t="n">
-        <v>252.2821168604896</v>
+        <v>345.6162834980124</v>
       </c>
       <c r="U41" t="n">
-        <v>194.0603992727385</v>
+        <v>345.6162834980124</v>
       </c>
       <c r="V41" t="n">
-        <v>194.0603992727385</v>
+        <v>345.6162834980124</v>
       </c>
       <c r="W41" t="n">
-        <v>194.0603992727385</v>
+        <v>252.2821168604891</v>
       </c>
       <c r="X41" t="n">
-        <v>194.0603992727385</v>
+        <v>252.2821168604891</v>
       </c>
       <c r="Y41" t="n">
-        <v>194.0603992727385</v>
+        <v>158.9479502229659</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89.60079997202239</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="C42" t="n">
-        <v>89.60079997202239</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="D42" t="n">
-        <v>89.60079997202239</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="E42" t="n">
-        <v>89.60079997202239</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="F42" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G42" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H42" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I42" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J42" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K42" t="n">
-        <v>28.20084994127639</v>
+        <v>28.20084994127632</v>
       </c>
       <c r="L42" t="n">
-        <v>102.5033690720167</v>
+        <v>102.5033690720166</v>
       </c>
       <c r="M42" t="n">
-        <v>193.9801857934533</v>
+        <v>134.2215717271241</v>
       </c>
       <c r="N42" t="n">
-        <v>285.45700251489</v>
+        <v>225.6983884485606</v>
       </c>
       <c r="O42" t="n">
-        <v>369.6032998845923</v>
+        <v>316.2559440569823</v>
       </c>
       <c r="P42" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="Q42" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R42" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S42" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="T42" t="n">
-        <v>369.6032998845923</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="U42" t="n">
-        <v>369.6032998845923</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="V42" t="n">
-        <v>276.269133247069</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="W42" t="n">
-        <v>182.9349666095457</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="X42" t="n">
-        <v>182.9349666095457</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="Y42" t="n">
-        <v>182.9349666095457</v>
+        <v>89.60079997202223</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="L43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="M43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="N43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="O43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="P43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="R43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="S43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="T43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="U43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="V43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="W43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="X43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.392065997691847</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>89.60079997202234</v>
+        <v>194.0603992727383</v>
       </c>
       <c r="C44" t="n">
-        <v>89.60079997202234</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="D44" t="n">
-        <v>89.60079997202234</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="E44" t="n">
-        <v>89.60079997202234</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="F44" t="n">
-        <v>89.60079997202234</v>
+        <v>100.7262326352151</v>
       </c>
       <c r="G44" t="n">
-        <v>89.60079997202234</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H44" t="n">
-        <v>89.60079997202234</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I44" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J44" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K44" t="n">
-        <v>21.05332062426911</v>
+        <v>21.05332062426908</v>
       </c>
       <c r="L44" t="n">
-        <v>74.90307685724517</v>
+        <v>74.90307685724508</v>
       </c>
       <c r="M44" t="n">
-        <v>166.3798935786817</v>
+        <v>166.3798935786816</v>
       </c>
       <c r="N44" t="n">
-        <v>257.8567103001184</v>
+        <v>257.8567103001182</v>
       </c>
       <c r="O44" t="n">
-        <v>336.7611699508447</v>
+        <v>336.7611699508443</v>
       </c>
       <c r="P44" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="Q44" t="n">
-        <v>369.6032998845924</v>
+        <v>345.6162834980125</v>
       </c>
       <c r="R44" t="n">
-        <v>369.6032998845924</v>
+        <v>345.6162834980125</v>
       </c>
       <c r="S44" t="n">
-        <v>276.269133247069</v>
+        <v>345.6162834980125</v>
       </c>
       <c r="T44" t="n">
-        <v>182.9349666095457</v>
+        <v>345.6162834980125</v>
       </c>
       <c r="U44" t="n">
-        <v>89.60079997202234</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="V44" t="n">
-        <v>89.60079997202234</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="W44" t="n">
-        <v>89.60079997202234</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="X44" t="n">
-        <v>89.60079997202234</v>
+        <v>252.2821168604893</v>
       </c>
       <c r="Y44" t="n">
-        <v>89.60079997202234</v>
+        <v>194.0603992727383</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.7262326352152</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J45" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K45" t="n">
-        <v>28.20084994127639</v>
+        <v>28.20084994127632</v>
       </c>
       <c r="L45" t="n">
-        <v>42.74475500568775</v>
+        <v>102.5033690720166</v>
       </c>
       <c r="M45" t="n">
-        <v>134.2215717271244</v>
+        <v>134.2215717271241</v>
       </c>
       <c r="N45" t="n">
-        <v>225.698388448561</v>
+        <v>225.6983884485606</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2559440569827</v>
+        <v>316.2559440569823</v>
       </c>
       <c r="P45" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="Q45" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="R45" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="S45" t="n">
-        <v>369.6032998845924</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="T45" t="n">
-        <v>287.3945659102619</v>
+        <v>369.6032998845919</v>
       </c>
       <c r="U45" t="n">
-        <v>287.3945659102619</v>
+        <v>276.2691332470687</v>
       </c>
       <c r="V45" t="n">
-        <v>287.3945659102619</v>
+        <v>182.9349666095455</v>
       </c>
       <c r="W45" t="n">
-        <v>194.0603992727385</v>
+        <v>89.60079997202223</v>
       </c>
       <c r="X45" t="n">
-        <v>194.0603992727385</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y45" t="n">
-        <v>100.7262326352152</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="C46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="D46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="E46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="F46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="G46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="H46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="I46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="J46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="K46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="L46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="M46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="N46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="O46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="P46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="R46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="S46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="T46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="U46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="V46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="W46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="X46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.392065997691848</v>
+        <v>7.392065997691839</v>
       </c>
     </row>
   </sheetData>
@@ -23278,10 +23278,10 @@
         <v>320.6480129991093</v>
       </c>
       <c r="I11" t="n">
-        <v>139.6037023452182</v>
+        <v>139.6037023452183</v>
       </c>
       <c r="J11" t="n">
-        <v>25.02000995425203</v>
+        <v>25.02000995425209</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.7868153990203</v>
+        <v>23.78681539902041</v>
       </c>
       <c r="R11" t="n">
-        <v>100.1085899953345</v>
+        <v>100.1085899953346</v>
       </c>
       <c r="S11" t="n">
-        <v>167.1291425025552</v>
+        <v>74.84028750016006</v>
       </c>
       <c r="T11" t="n">
-        <v>122.7597084044633</v>
+        <v>122.7597084044634</v>
       </c>
       <c r="U11" t="n">
-        <v>158.9097315679011</v>
+        <v>251.1985865702964</v>
       </c>
       <c r="V11" t="n">
-        <v>235.4634034677396</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>267.9529452313033</v>
+        <v>256.9521137150178</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>288.4430771923594</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,13 +23342,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>55.15621056224346</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>65.35622545300565</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>52.78035739098858</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.3599243172687</v>
@@ -23357,10 +23357,10 @@
         <v>102.7360080664787</v>
       </c>
       <c r="I12" t="n">
-        <v>65.65745087436915</v>
+        <v>65.65745087436916</v>
       </c>
       <c r="J12" t="n">
-        <v>33.90967274370946</v>
+        <v>33.90967274370952</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>17.74945405753294</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>153.4133653908383</v>
+        <v>61.1245103884431</v>
       </c>
       <c r="T12" t="n">
         <v>196.2001592850822</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8766720253207</v>
+        <v>133.5878170229256</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>158.2611862045633</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23439,28 +23439,28 @@
         <v>130.652167173172</v>
       </c>
       <c r="J13" t="n">
-        <v>68.6954095278094</v>
+        <v>68.69540952780943</v>
       </c>
       <c r="K13" t="n">
-        <v>33.20842954380555</v>
+        <v>33.20842954380559</v>
       </c>
       <c r="L13" t="n">
-        <v>12.28748008706455</v>
+        <v>12.28748008706461</v>
       </c>
       <c r="M13" t="n">
-        <v>9.664229956157271</v>
+        <v>9.664229956157328</v>
       </c>
       <c r="N13" t="n">
-        <v>1.497541313922952</v>
+        <v>1.497541313923023</v>
       </c>
       <c r="O13" t="n">
-        <v>21.90149342145183</v>
+        <v>21.90149342145189</v>
       </c>
       <c r="P13" t="n">
-        <v>37.9950275194126</v>
+        <v>37.99502751941264</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.45505824284109</v>
+        <v>82.45505824284112</v>
       </c>
       <c r="R13" t="n">
         <v>140.2158731934601</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>350.6080322098538</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4644082958837</v>
+        <v>321.1755532934885</v>
       </c>
       <c r="H14" t="n">
         <v>320.6480129991093</v>
       </c>
       <c r="I14" t="n">
-        <v>139.6037023452182</v>
+        <v>139.6037023452183</v>
       </c>
       <c r="J14" t="n">
-        <v>25.02000995425203</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,28 +23539,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.7868153990203</v>
+        <v>23.78681539902038</v>
       </c>
       <c r="R14" t="n">
-        <v>100.1085899953345</v>
+        <v>100.1085899953346</v>
       </c>
       <c r="S14" t="n">
         <v>167.1291425025552</v>
       </c>
       <c r="T14" t="n">
-        <v>122.7597084044633</v>
+        <v>122.7597084044634</v>
       </c>
       <c r="U14" t="n">
-        <v>158.9097315679011</v>
+        <v>158.9097315679012</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>256.9521137150177</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>288.4430771923593</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>74.24432864747203</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>105.8474856044875</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>65.35622545300564</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>52.78035739098857</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.3599243172687</v>
@@ -23594,10 +23594,10 @@
         <v>102.7360080664787</v>
       </c>
       <c r="I15" t="n">
-        <v>65.65745087436915</v>
+        <v>65.65745087436916</v>
       </c>
       <c r="J15" t="n">
-        <v>33.90967274370946</v>
+        <v>33.90967274370951</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,10 +23618,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.42701010228134</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>84.61046744136135</v>
+        <v>84.61046744136137</v>
       </c>
       <c r="S15" t="n">
         <v>153.4133653908383</v>
@@ -23633,13 +23633,13 @@
         <v>225.8766720253207</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>140.5117321470301</v>
       </c>
       <c r="W15" t="n">
-        <v>170.4069596748099</v>
+        <v>159.4061281585244</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>113.4841302010823</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23676,28 +23676,28 @@
         <v>130.652167173172</v>
       </c>
       <c r="J16" t="n">
-        <v>68.6954095278094</v>
+        <v>68.69540952780943</v>
       </c>
       <c r="K16" t="n">
-        <v>33.20842954380555</v>
+        <v>33.20842954380558</v>
       </c>
       <c r="L16" t="n">
-        <v>12.28748008706455</v>
+        <v>12.28748008706459</v>
       </c>
       <c r="M16" t="n">
-        <v>9.664229956157271</v>
+        <v>9.664229956157328</v>
       </c>
       <c r="N16" t="n">
-        <v>1.497541313922952</v>
+        <v>1.497541313923008</v>
       </c>
       <c r="O16" t="n">
-        <v>21.90149342145183</v>
+        <v>21.90149342145187</v>
       </c>
       <c r="P16" t="n">
-        <v>37.9950275194126</v>
+        <v>37.99502751941263</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.45505824284109</v>
+        <v>82.45505824284112</v>
       </c>
       <c r="R16" t="n">
         <v>140.2158731934601</v>
@@ -23746,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>321.0632159792824</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H17" t="n">
-        <v>320.6442509224869</v>
+        <v>228.243425951339</v>
       </c>
       <c r="I17" t="n">
-        <v>139.5895402596346</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J17" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R17" t="n">
-        <v>7.684689760363355</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S17" t="n">
         <v>167.1207716180409</v>
@@ -23788,13 +23788,13 @@
         <v>215.0469553521373</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1985571826601</v>
+        <v>158.7977322115121</v>
       </c>
       <c r="V17" t="n">
-        <v>235.3514334989868</v>
+        <v>246.3656118355478</v>
       </c>
       <c r="W17" t="n">
-        <v>291.6014683055395</v>
+        <v>256.840143746265</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>74.13235867871926</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,19 +23822,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>63.68256575879664</v>
+        <v>52.6683874222359</v>
       </c>
       <c r="G18" t="n">
-        <v>43.95890279897559</v>
+        <v>43.95890279897569</v>
       </c>
       <c r="H18" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I18" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J18" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,22 +23855,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R18" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S18" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T18" t="n">
-        <v>103.7985420910116</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8766590945875</v>
+        <v>133.4758341234395</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>151.4139405148382</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23913,34 +23913,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J19" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K19" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L19" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M19" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N19" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O19" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P19" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R19" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S19" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T19" t="n">
         <v>224.4215466066255</v>
@@ -23977,22 +23977,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>289.5295451011136</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>321.0632159792823</v>
+        <v>321.0632159792825</v>
       </c>
       <c r="H20" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I20" t="n">
-        <v>139.5895402596346</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J20" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>100.0855147315114</v>
+        <v>7.684689760363497</v>
       </c>
       <c r="S20" t="n">
-        <v>109.4812712061675</v>
+        <v>74.71994664689298</v>
       </c>
       <c r="T20" t="n">
-        <v>122.6461303809891</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1985571826601</v>
+        <v>193.5590567707866</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>85.1465370152802</v>
       </c>
       <c r="C21" t="n">
-        <v>80.30767401716759</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>76.25843382081365</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,10 +24068,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I21" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J21" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R21" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S21" t="n">
         <v>153.4097146138236</v>
@@ -24104,16 +24104,16 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U21" t="n">
-        <v>133.4758341234394</v>
+        <v>133.4758341234395</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>140.3997621782773</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>159.2941581897716</v>
       </c>
       <c r="X21" t="n">
-        <v>113.3721602323293</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24150,34 +24150,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J22" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K22" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L22" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M22" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N22" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O22" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P22" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R22" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S22" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T22" t="n">
         <v>224.4215466066255</v>
@@ -24217,19 +24217,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>314.3632508018106</v>
       </c>
       <c r="G23" t="n">
-        <v>320.9512460105296</v>
+        <v>320.9512460105298</v>
       </c>
       <c r="H23" t="n">
-        <v>228.1314559825861</v>
+        <v>320.6442509224869</v>
       </c>
       <c r="I23" t="n">
-        <v>139.5895402596346</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J23" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,16 +24250,16 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>100.0855147315114</v>
+        <v>7.572719791610695</v>
       </c>
       <c r="S23" t="n">
-        <v>85.85055135696295</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T23" t="n">
-        <v>122.5341604122365</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U23" t="n">
         <v>251.1985571826601</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>328.7148646176894</v>
       </c>
     </row>
     <row r="24">
@@ -24290,25 +24290,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>54.93227062473792</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>65.13228551550012</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>52.55641745348305</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>54.87445798705909</v>
+        <v>136.3597277701237</v>
       </c>
       <c r="H24" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I24" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J24" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R24" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S24" t="n">
         <v>153.4097146138236</v>
@@ -24341,19 +24341,19 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546868</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>140.2877922095245</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>124.1974259942398</v>
       </c>
     </row>
     <row r="25">
@@ -24387,34 +24387,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J25" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K25" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L25" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M25" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N25" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O25" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P25" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R25" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S25" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T25" t="n">
         <v>224.4215466066255</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>290.2210467235798</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,19 +24454,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>314.3632508018106</v>
       </c>
       <c r="G26" t="n">
         <v>413.4640409504305</v>
       </c>
       <c r="H26" t="n">
-        <v>320.6442509224869</v>
+        <v>239.3740306614091</v>
       </c>
       <c r="I26" t="n">
-        <v>139.5895402596346</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J26" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,28 +24487,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R26" t="n">
-        <v>100.0855147315114</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S26" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T26" t="n">
-        <v>133.7767350910593</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1985571826601</v>
+        <v>158.6857622427594</v>
       </c>
       <c r="V26" t="n">
-        <v>235.2394635302341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>256.7281737775122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>277.2183057385682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24542,10 +24542,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I27" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J27" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,28 +24566,28 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R27" t="n">
-        <v>17.51491552594862</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S27" t="n">
-        <v>60.89691967392272</v>
+        <v>153.4097146138236</v>
       </c>
       <c r="T27" t="n">
         <v>196.1993670621597</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546868</v>
       </c>
       <c r="V27" t="n">
-        <v>140.2877922095244</v>
+        <v>140.2877922095245</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>170.209713377855</v>
       </c>
       <c r="X27" t="n">
-        <v>113.2601902635766</v>
+        <v>113.2601902635767</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24624,34 +24624,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J28" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K28" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L28" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M28" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N28" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O28" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P28" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R28" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S28" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T28" t="n">
         <v>224.4215466066255</v>
@@ -24694,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>320.9512460105296</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H29" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I29" t="n">
-        <v>58.31931999855668</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J29" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>100.0855147315114</v>
+        <v>7.572719791610695</v>
       </c>
       <c r="S29" t="n">
-        <v>74.60797667814012</v>
+        <v>74.60797667814018</v>
       </c>
       <c r="T29" t="n">
         <v>122.5341604122365</v>
@@ -24739,7 +24739,7 @@
         <v>251.1985571826601</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>270.2291844317707</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24764,25 +24764,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>54.93227062473798</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13228551550017</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>63.58394261031928</v>
       </c>
       <c r="G30" t="n">
         <v>136.3597277701237</v>
       </c>
       <c r="H30" t="n">
-        <v>102.7341098348409</v>
+        <v>10.22131489494011</v>
       </c>
       <c r="I30" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J30" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R30" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S30" t="n">
         <v>153.4097146138236</v>
@@ -24815,16 +24815,16 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U30" t="n">
-        <v>133.3638641546867</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V30" t="n">
-        <v>140.2877922095244</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>159.1821882210188</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>124.2877154204129</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24861,34 +24861,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J31" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K31" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L31" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M31" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N31" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O31" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P31" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R31" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S31" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T31" t="n">
         <v>224.4215466066255</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4640409504305</v>
+        <v>320.9512460105298</v>
       </c>
       <c r="H32" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I32" t="n">
-        <v>139.5895402596346</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J32" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>100.0855147315114</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S32" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T32" t="n">
-        <v>122.5341604122365</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U32" t="n">
-        <v>158.6857622427593</v>
+        <v>158.6857622427594</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>270.2291844317707</v>
       </c>
       <c r="W32" t="n">
-        <v>291.7178946790487</v>
+        <v>256.7281737775122</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>293.7251437161527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>80.19570404841491</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>54.93227062473798</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>65.13228551550017</v>
       </c>
       <c r="F33" t="n">
-        <v>52.55641745348305</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.3597277701237</v>
+        <v>43.8469328302229</v>
       </c>
       <c r="H33" t="n">
         <v>102.7341098348409</v>
       </c>
       <c r="I33" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J33" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R33" t="n">
-        <v>84.59826427738967</v>
+        <v>3.112994494325079</v>
       </c>
       <c r="S33" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T33" t="n">
-        <v>103.6865721222589</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U33" t="n">
-        <v>144.3913893115229</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25098,34 +25098,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J34" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K34" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L34" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M34" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N34" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O34" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P34" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R34" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S34" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T34" t="n">
         <v>224.4215466066255</v>
@@ -25153,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>290.2210467235798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>272.7600968311067</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>297.1599675823188</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>314.3632508018106</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4640409504305</v>
+        <v>320.9512460105298</v>
       </c>
       <c r="H35" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I35" t="n">
-        <v>139.5895402596346</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J35" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>100.0855147315114</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S35" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T35" t="n">
-        <v>133.7767350910593</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U35" t="n">
-        <v>158.6857622427593</v>
+        <v>158.6857622427594</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25238,25 +25238,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>54.93227062473792</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>65.13228551550012</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>52.55641745348305</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.3597277701237</v>
       </c>
       <c r="H36" t="n">
-        <v>102.7341098348409</v>
+        <v>21.24884005177628</v>
       </c>
       <c r="I36" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J36" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,25 +25277,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R36" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S36" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T36" t="n">
-        <v>114.7140972790951</v>
+        <v>103.686572122259</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8766590945875</v>
+        <v>133.3638641546868</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>159.1821882210188</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25335,34 +25335,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J37" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K37" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L37" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M37" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N37" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O37" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P37" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R37" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S37" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T37" t="n">
         <v>224.4215466066255</v>
@@ -25405,16 +25405,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>332.1938206893524</v>
+        <v>320.9512460105298</v>
       </c>
       <c r="H38" t="n">
-        <v>320.6442509224869</v>
+        <v>264.3628626295047</v>
       </c>
       <c r="I38" t="n">
-        <v>139.5895402596346</v>
+        <v>47.0767453197339</v>
       </c>
       <c r="J38" t="n">
-        <v>24.9888319680955</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,10 +25435,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.74714622271364</v>
+        <v>23.74714622271367</v>
       </c>
       <c r="R38" t="n">
-        <v>100.0855147315114</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S38" t="n">
         <v>167.1207716180409</v>
@@ -25447,19 +25447,19 @@
         <v>215.0469553521373</v>
       </c>
       <c r="U38" t="n">
-        <v>158.6857622427593</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V38" t="n">
-        <v>235.2394635302341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>277.2183057385682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>293.7251437161528</v>
       </c>
     </row>
     <row r="39">
@@ -25469,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.6985976574492</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>80.19570404841497</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25490,10 +25490,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J39" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,28 +25514,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R39" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S39" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T39" t="n">
-        <v>196.1993670621597</v>
+        <v>103.686572122259</v>
       </c>
       <c r="U39" t="n">
-        <v>133.3638641546867</v>
+        <v>225.8766590945875</v>
       </c>
       <c r="V39" t="n">
-        <v>140.2877922095245</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>159.1821882210188</v>
+        <v>170.209713377855</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>113.2601902635767</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25572,34 +25572,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J40" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K40" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L40" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M40" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N40" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O40" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P40" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R40" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S40" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T40" t="n">
         <v>224.4215466066255</v>
@@ -25627,31 +25627,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>325.0943412516073</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>262.282216649535</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>314.4752207705633</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>321.0632159792824</v>
+        <v>413.4640409504305</v>
       </c>
       <c r="H41" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I41" t="n">
-        <v>139.5895402596346</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J41" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>100.0855147315114</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S41" t="n">
         <v>167.1207716180409</v>
       </c>
       <c r="T41" t="n">
-        <v>122.6461303809892</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U41" t="n">
-        <v>193.5590567707866</v>
+        <v>251.1985571826601</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>256.840143746265</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>293.8371136849056</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>74.13235867871926</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25718,7 +25718,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>63.68256575879664</v>
+        <v>63.6825657587968</v>
       </c>
       <c r="G42" t="n">
         <v>136.3597277701237</v>
@@ -25727,10 +25727,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I42" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J42" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,10 +25751,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R42" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S42" t="n">
         <v>153.4097146138236</v>
@@ -25763,13 +25763,13 @@
         <v>196.1993670621597</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8766590945875</v>
+        <v>133.4758341234395</v>
       </c>
       <c r="V42" t="n">
-        <v>140.3997621782772</v>
+        <v>140.3997621782773</v>
       </c>
       <c r="W42" t="n">
-        <v>159.2941581897715</v>
+        <v>159.2941581897716</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25809,34 +25809,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J43" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K43" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L43" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M43" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N43" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O43" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P43" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R43" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S43" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T43" t="n">
         <v>224.4215466066255</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>272.8720667998596</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4640409504305</v>
+        <v>321.0632159792825</v>
       </c>
       <c r="H44" t="n">
         <v>320.6442509224869</v>
       </c>
       <c r="I44" t="n">
-        <v>58.20289362504745</v>
+        <v>139.5895402596347</v>
       </c>
       <c r="J44" t="n">
-        <v>24.9888319680955</v>
+        <v>24.98883196809555</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.74714622271364</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>100.0855147315114</v>
+        <v>100.0855147315115</v>
       </c>
       <c r="S44" t="n">
-        <v>74.71994664689285</v>
+        <v>167.1207716180409</v>
       </c>
       <c r="T44" t="n">
-        <v>122.6461303809892</v>
+        <v>215.0469553521373</v>
       </c>
       <c r="U44" t="n">
-        <v>158.797732211512</v>
+        <v>158.7977322115121</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>328.5984382441802</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>80.30767401716764</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25964,10 +25964,10 @@
         <v>102.7341098348409</v>
       </c>
       <c r="I45" t="n">
-        <v>65.65068379064651</v>
+        <v>65.65068379064653</v>
       </c>
       <c r="J45" t="n">
-        <v>33.89110334874523</v>
+        <v>33.89110334874526</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,31 +25988,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.40192103162359</v>
+        <v>14.40192103162362</v>
       </c>
       <c r="R45" t="n">
-        <v>84.59826427738967</v>
+        <v>84.59826427738969</v>
       </c>
       <c r="S45" t="n">
         <v>153.4097146138236</v>
       </c>
       <c r="T45" t="n">
-        <v>114.8127204275725</v>
+        <v>196.1993670621597</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8766590945875</v>
+        <v>133.4758341234395</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>140.3997621782773</v>
       </c>
       <c r="W45" t="n">
-        <v>159.2941581897715</v>
+        <v>159.2941581897716</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>124.3863385688904</v>
       </c>
       <c r="Y45" t="n">
-        <v>113.2818708061563</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26046,34 +26046,34 @@
         <v>130.6472118335601</v>
       </c>
       <c r="J46" t="n">
-        <v>68.68375968616431</v>
+        <v>68.68375968616432</v>
       </c>
       <c r="K46" t="n">
-        <v>33.1892852752927</v>
+        <v>33.18928527529272</v>
       </c>
       <c r="L46" t="n">
-        <v>12.26298201450906</v>
+        <v>12.26298201450909</v>
       </c>
       <c r="M46" t="n">
-        <v>9.638400173530755</v>
+        <v>9.638400173530783</v>
       </c>
       <c r="N46" t="n">
-        <v>1.472325705794887</v>
+        <v>1.472325705794916</v>
       </c>
       <c r="O46" t="n">
-        <v>21.87820272608113</v>
+        <v>21.87820272608116</v>
       </c>
       <c r="P46" t="n">
-        <v>37.975098305931</v>
+        <v>37.97509830593103</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.44126028843797</v>
+        <v>82.44126028843799</v>
       </c>
       <c r="R46" t="n">
         <v>140.2084641518275</v>
       </c>
       <c r="S46" t="n">
-        <v>209.6430021026858</v>
+        <v>209.6430021026859</v>
       </c>
       <c r="T46" t="n">
         <v>224.4215466066255</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362305.0082603243</v>
+        <v>362305.0082603242</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>362397.7815214763</v>
+        <v>362397.7815214761</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>362397.7815214763</v>
+        <v>362397.7815214761</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362445.3425166904</v>
+        <v>362445.3425166903</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>362445.3425166904</v>
+        <v>362445.3425166903</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>362445.3425166904</v>
+        <v>362445.3425166903</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>362445.3425166904</v>
+        <v>362445.3425166903</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362397.7815214763</v>
+        <v>362397.7815214761</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362397.7815214763</v>
+        <v>362397.7815214761</v>
       </c>
     </row>
   </sheetData>
@@ -26325,13 +26325,13 @@
         <v>116211.0403853869</v>
       </c>
       <c r="F2" t="n">
-        <v>116211.040385387</v>
+        <v>116211.0403853869</v>
       </c>
       <c r="G2" t="n">
-        <v>116240.7978465112</v>
+        <v>116240.7978465111</v>
       </c>
       <c r="H2" t="n">
-        <v>116240.7978465112</v>
+        <v>116240.7978465111</v>
       </c>
       <c r="I2" t="n">
         <v>116256.0532600704</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137993.7487653026</v>
+        <v>137993.7487653023</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>101.733859581056</v>
+        <v>101.7338595811191</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29.77516606068002</v>
+        <v>29.77516606071403</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>22998.75182201694</v>
+        <v>22998.75182201689</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>66.87306366112958</v>
+        <v>66.87306366112946</v>
       </c>
       <c r="F4" t="n">
-        <v>66.87306366112958</v>
+        <v>66.87306366112948</v>
       </c>
       <c r="G4" t="n">
-        <v>66.95419777909372</v>
+        <v>66.95419777909362</v>
       </c>
       <c r="H4" t="n">
-        <v>66.95419777909375</v>
+        <v>66.95419777909362</v>
       </c>
       <c r="I4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="J4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="L4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="M4" t="n">
-        <v>67.00913363879317</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="N4" t="n">
-        <v>67.00913363879316</v>
+        <v>67.0091336387931</v>
       </c>
       <c r="O4" t="n">
-        <v>66.9541977790937</v>
+        <v>66.95419777909363</v>
       </c>
       <c r="P4" t="n">
-        <v>66.95419777909373</v>
+        <v>66.95419777909363</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>15579.96215784089</v>
+        <v>15579.96215784088</v>
       </c>
       <c r="F5" t="n">
-        <v>15579.96215784089</v>
+        <v>15579.96215784088</v>
       </c>
       <c r="G5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449726</v>
       </c>
       <c r="H5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449726</v>
       </c>
       <c r="I5" t="n">
-        <v>15595.56972859744</v>
+        <v>15595.56972859743</v>
       </c>
       <c r="J5" t="n">
-        <v>15595.56972859744</v>
+        <v>15595.56972859743</v>
       </c>
       <c r="K5" t="n">
-        <v>15595.56972859744</v>
+        <v>15595.56972859743</v>
       </c>
       <c r="L5" t="n">
-        <v>15595.56972859744</v>
+        <v>15595.56972859743</v>
       </c>
       <c r="M5" t="n">
-        <v>15595.56972859744</v>
+        <v>15595.56972859743</v>
       </c>
       <c r="N5" t="n">
-        <v>15595.56972859744</v>
+        <v>15595.56972859743</v>
       </c>
       <c r="O5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449726</v>
       </c>
       <c r="P5" t="n">
-        <v>15588.76195449727</v>
+        <v>15588.76195449726</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-283506.7184849422</v>
+        <v>-269323.4242702696</v>
       </c>
       <c r="C6" t="n">
-        <v>24677.16533561212</v>
+        <v>38860.45955028466</v>
       </c>
       <c r="D6" t="n">
-        <v>24677.16533561212</v>
+        <v>38860.45955028466</v>
       </c>
       <c r="E6" t="n">
-        <v>-51119.64429594314</v>
+        <v>-38798.55367086994</v>
       </c>
       <c r="F6" t="n">
-        <v>86874.10446935944</v>
+        <v>99195.19509443236</v>
       </c>
       <c r="G6" t="n">
-        <v>86794.99757901789</v>
+        <v>99114.51280909007</v>
       </c>
       <c r="H6" t="n">
-        <v>86896.73143859897</v>
+        <v>99216.24666867119</v>
       </c>
       <c r="I6" t="n">
-        <v>86876.24635340585</v>
+        <v>99194.95394393672</v>
       </c>
       <c r="J6" t="n">
-        <v>86906.02151946651</v>
+        <v>99224.72910999742</v>
       </c>
       <c r="K6" t="n">
-        <v>86906.02151946651</v>
+        <v>99224.72910999742</v>
       </c>
       <c r="L6" t="n">
-        <v>86906.02151946654</v>
+        <v>99224.72910999744</v>
       </c>
       <c r="M6" t="n">
-        <v>63907.26969744958</v>
+        <v>76225.97728798055</v>
       </c>
       <c r="N6" t="n">
-        <v>86906.02151946655</v>
+        <v>99224.72910999744</v>
       </c>
       <c r="O6" t="n">
-        <v>86896.73143859894</v>
+        <v>99216.24666867124</v>
       </c>
       <c r="P6" t="n">
-        <v>86896.73143859893</v>
+        <v>99216.24666867119</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>457.2843932887732</v>
+        <v>457.284393288773</v>
       </c>
       <c r="F3" t="n">
-        <v>457.2843932887732</v>
+        <v>457.2843932887731</v>
       </c>
       <c r="G3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="H3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="I3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="J3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="K3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="L3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="M3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="N3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="O3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
       <c r="P3" t="n">
-        <v>457.3757704702508</v>
+        <v>457.3757704702507</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="F4" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="G4" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="H4" t="n">
-        <v>92.40082497114815</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="I4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="J4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="K4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="L4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="M4" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N4" t="n">
-        <v>92.51279493990081</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O4" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="P4" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114798</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>137.4631747907306</v>
+        <v>137.4631747907304</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09137718147758554</v>
+        <v>0.09137718147763962</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.28885500239539</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1119699687527316</v>
+        <v>0.1119699687528082</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1119699687526747</v>
+        <v>0.1119699687528026</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239539</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.28885500239539</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1119699687527316</v>
+        <v>0.1119699687528082</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.838329219251348</v>
+        <v>1.838329219251347</v>
       </c>
       <c r="H11" t="n">
         <v>18.82678911665787</v>
       </c>
       <c r="I11" t="n">
-        <v>70.87218722518767</v>
+        <v>70.87218722518764</v>
       </c>
       <c r="J11" t="n">
-        <v>156.0258945724343</v>
+        <v>156.0258945724342</v>
       </c>
       <c r="K11" t="n">
-        <v>233.8423704233439</v>
+        <v>233.8423704233438</v>
       </c>
       <c r="L11" t="n">
-        <v>290.1021382670074</v>
+        <v>290.1021382670073</v>
       </c>
       <c r="M11" t="n">
-        <v>322.635088229668</v>
+        <v>322.6350882296679</v>
       </c>
       <c r="N11" t="n">
-        <v>321.7019185989862</v>
+        <v>321.7019185989861</v>
       </c>
       <c r="O11" t="n">
-        <v>309.7377922401358</v>
+        <v>309.7377922401357</v>
       </c>
       <c r="P11" t="n">
-        <v>264.3540396398681</v>
+        <v>264.354039639868</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.5188744754292</v>
+        <v>198.5188744754291</v>
       </c>
       <c r="R11" t="n">
         <v>115.4769478187976</v>
       </c>
       <c r="S11" t="n">
-        <v>41.89092708369014</v>
+        <v>41.89092708369012</v>
       </c>
       <c r="T11" t="n">
-        <v>8.047286157272781</v>
+        <v>8.047286157272778</v>
       </c>
       <c r="U11" t="n">
         <v>0.1470663375401078</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9835928459418897</v>
+        <v>0.9835928459418891</v>
       </c>
       <c r="H12" t="n">
-        <v>9.499436170017725</v>
+        <v>9.49943617001772</v>
       </c>
       <c r="I12" t="n">
-        <v>33.86492912563085</v>
+        <v>33.86492912563084</v>
       </c>
       <c r="J12" t="n">
-        <v>92.92795392295723</v>
+        <v>92.92795392295717</v>
       </c>
       <c r="K12" t="n">
-        <v>158.8286746010638</v>
+        <v>158.8286746010637</v>
       </c>
       <c r="L12" t="n">
-        <v>153.1418105814819</v>
+        <v>213.5647536769878</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4228889244136</v>
+        <v>234.4228889244135</v>
       </c>
       <c r="N12" t="n">
-        <v>223.6305670857286</v>
+        <v>217.0563101136905</v>
       </c>
       <c r="O12" t="n">
-        <v>234.0217592710951</v>
+        <v>234.021759271095</v>
       </c>
       <c r="P12" t="n">
-        <v>187.8230935377982</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.5547639837402</v>
+        <v>125.5547639837401</v>
       </c>
       <c r="R12" t="n">
-        <v>61.06903652260261</v>
+        <v>61.06903652260258</v>
       </c>
       <c r="S12" t="n">
-        <v>18.26980571299956</v>
+        <v>18.26980571299955</v>
       </c>
       <c r="T12" t="n">
-        <v>3.964569409739457</v>
+        <v>3.964569409739455</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06471005565407172</v>
+        <v>0.06471005565407167</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8246112010125418</v>
+        <v>0.8246112010125414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.331543223547877</v>
+        <v>7.331543223547873</v>
       </c>
       <c r="I13" t="n">
-        <v>24.79830775408626</v>
+        <v>24.79830775408625</v>
       </c>
       <c r="J13" t="n">
-        <v>58.3000119115867</v>
+        <v>58.30001191158667</v>
       </c>
       <c r="K13" t="n">
-        <v>95.80482862672983</v>
+        <v>95.80482862672979</v>
       </c>
       <c r="L13" t="n">
         <v>122.5971961941737</v>
       </c>
       <c r="M13" t="n">
-        <v>129.2615539914478</v>
+        <v>129.2615539914477</v>
       </c>
       <c r="N13" t="n">
         <v>126.1880031513102</v>
       </c>
       <c r="O13" t="n">
-        <v>116.555045030391</v>
+        <v>116.5550450303909</v>
       </c>
       <c r="P13" t="n">
-        <v>99.73297652973501</v>
+        <v>99.73297652973497</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.04994338660475</v>
+        <v>69.04994338660472</v>
       </c>
       <c r="R13" t="n">
-        <v>37.07751818370937</v>
+        <v>37.07751818370935</v>
       </c>
       <c r="S13" t="n">
         <v>14.37072429400947</v>
       </c>
       <c r="T13" t="n">
-        <v>3.523338767962678</v>
+        <v>3.523338767962676</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04497879278250233</v>
+        <v>0.04497879278250231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,40 +31995,40 @@
         <v>18.82678911665787</v>
       </c>
       <c r="I14" t="n">
-        <v>70.87218722518767</v>
+        <v>70.87218722518764</v>
       </c>
       <c r="J14" t="n">
-        <v>156.0258945724343</v>
+        <v>156.0258945724342</v>
       </c>
       <c r="K14" t="n">
-        <v>233.8423704233439</v>
+        <v>233.8423704233438</v>
       </c>
       <c r="L14" t="n">
-        <v>290.1021382670074</v>
+        <v>290.1021382670073</v>
       </c>
       <c r="M14" t="n">
-        <v>322.635088229668</v>
+        <v>322.6350882296679</v>
       </c>
       <c r="N14" t="n">
-        <v>321.7019185989863</v>
+        <v>321.7019185989861</v>
       </c>
       <c r="O14" t="n">
-        <v>309.7377922401358</v>
+        <v>309.7377922401357</v>
       </c>
       <c r="P14" t="n">
         <v>264.3540396398681</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.5188744754292</v>
+        <v>198.5188744754291</v>
       </c>
       <c r="R14" t="n">
         <v>115.4769478187976</v>
       </c>
       <c r="S14" t="n">
-        <v>41.89092708369014</v>
+        <v>41.89092708369012</v>
       </c>
       <c r="T14" t="n">
-        <v>8.047286157272781</v>
+        <v>8.047286157272778</v>
       </c>
       <c r="U14" t="n">
         <v>0.1470663375401078</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9835928459418897</v>
+        <v>0.9835928459418892</v>
       </c>
       <c r="H15" t="n">
-        <v>9.499436170017725</v>
+        <v>9.499436170017722</v>
       </c>
       <c r="I15" t="n">
-        <v>33.86492912563085</v>
+        <v>33.86492912563084</v>
       </c>
       <c r="J15" t="n">
-        <v>92.92795392295723</v>
+        <v>92.92795392295719</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>158.8286746010638</v>
       </c>
       <c r="L15" t="n">
         <v>213.5647536769879</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4228889244136</v>
+        <v>234.4228889244135</v>
       </c>
       <c r="N15" t="n">
-        <v>223.6305670857286</v>
+        <v>163.2076239902225</v>
       </c>
       <c r="O15" t="n">
-        <v>194.5860518022939</v>
+        <v>234.021759271095</v>
       </c>
       <c r="P15" t="n">
-        <v>187.8230935377982</v>
+        <v>187.8230935377981</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.5547639837402</v>
+        <v>125.5547639837401</v>
       </c>
       <c r="R15" t="n">
-        <v>61.06903652260261</v>
+        <v>61.06903652260259</v>
       </c>
       <c r="S15" t="n">
-        <v>18.26980571299956</v>
+        <v>18.26980571299955</v>
       </c>
       <c r="T15" t="n">
-        <v>3.964569409739457</v>
+        <v>3.964569409739456</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06471005565407172</v>
+        <v>0.06471005565407169</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8246112010125418</v>
+        <v>0.8246112010125415</v>
       </c>
       <c r="H16" t="n">
-        <v>7.331543223547877</v>
+        <v>7.331543223547874</v>
       </c>
       <c r="I16" t="n">
         <v>24.79830775408626</v>
       </c>
       <c r="J16" t="n">
-        <v>58.3000119115867</v>
+        <v>58.30001191158668</v>
       </c>
       <c r="K16" t="n">
-        <v>95.80482862672983</v>
+        <v>95.8048286267298</v>
       </c>
       <c r="L16" t="n">
         <v>122.5971961941737</v>
       </c>
       <c r="M16" t="n">
-        <v>129.2615539914478</v>
+        <v>129.2615539914477</v>
       </c>
       <c r="N16" t="n">
         <v>126.1880031513102</v>
       </c>
       <c r="O16" t="n">
-        <v>116.555045030391</v>
+        <v>116.5550450303909</v>
       </c>
       <c r="P16" t="n">
-        <v>99.73297652973501</v>
+        <v>99.73297652973498</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.04994338660475</v>
+        <v>69.04994338660472</v>
       </c>
       <c r="R16" t="n">
-        <v>37.07751818370937</v>
+        <v>37.07751818370936</v>
       </c>
       <c r="S16" t="n">
         <v>14.37072429400947</v>
       </c>
       <c r="T16" t="n">
-        <v>3.523338767962678</v>
+        <v>3.523338767962676</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04497879278250233</v>
+        <v>0.04497879278250232</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H17" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I17" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J17" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K17" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L17" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M17" t="n">
-        <v>322.7470581984208</v>
+        <v>322.7470581984207</v>
       </c>
       <c r="N17" t="n">
-        <v>321.813888567739</v>
+        <v>321.8138885677389</v>
       </c>
       <c r="O17" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P17" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q17" t="n">
         <v>198.5585436517358</v>
@@ -32265,7 +32265,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T17" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U17" t="n">
         <v>0.1470957251763619</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H18" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I18" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J18" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K18" t="n">
         <v>158.8604126547474</v>
@@ -32323,31 +32323,31 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M18" t="n">
-        <v>234.5348588931664</v>
+        <v>228.0588404702175</v>
       </c>
       <c r="N18" t="n">
-        <v>223.7425370544814</v>
+        <v>223.7425370544813</v>
       </c>
       <c r="O18" t="n">
-        <v>173.7062864061542</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P18" t="n">
-        <v>187.8606254220168</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R18" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S18" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T18" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H19" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I19" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J19" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K19" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L19" t="n">
         <v>122.6216942667292</v>
@@ -32408,25 +32408,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O19" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P19" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R19" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S19" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T19" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H20" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I20" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J20" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K20" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L20" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M20" t="n">
-        <v>322.7470581984209</v>
+        <v>322.7470581984207</v>
       </c>
       <c r="N20" t="n">
-        <v>321.8138885677391</v>
+        <v>321.8138885677389</v>
       </c>
       <c r="O20" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P20" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q20" t="n">
         <v>198.5585436517358</v>
@@ -32502,7 +32502,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T20" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U20" t="n">
         <v>0.1470957251763619</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H21" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I21" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J21" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K21" t="n">
         <v>158.8604126547474</v>
@@ -32560,13 +32560,13 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M21" t="n">
-        <v>174.1726224625313</v>
+        <v>234.5348588931663</v>
       </c>
       <c r="N21" t="n">
-        <v>223.7425370544815</v>
+        <v>163.380300623846</v>
       </c>
       <c r="O21" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P21" t="n">
         <v>187.8606254220168</v>
@@ -32575,16 +32575,16 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R21" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S21" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T21" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H22" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I22" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J22" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K22" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L22" t="n">
         <v>122.6216942667292</v>
@@ -32645,25 +32645,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O22" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P22" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R22" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S22" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T22" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H23" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I23" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J23" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K23" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L23" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M23" t="n">
-        <v>322.8590281671736</v>
+        <v>322.8590281671735</v>
       </c>
       <c r="N23" t="n">
-        <v>321.9258585364918</v>
+        <v>321.9258585364917</v>
       </c>
       <c r="O23" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P23" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q23" t="n">
         <v>198.5585436517358</v>
@@ -32739,7 +32739,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T23" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U23" t="n">
         <v>0.1470957251763619</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H24" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I24" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J24" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K24" t="n">
         <v>158.8604126547474</v>
@@ -32797,13 +32797,13 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M24" t="n">
-        <v>174.5040083296478</v>
+        <v>234.6468288619191</v>
       </c>
       <c r="N24" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O24" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P24" t="n">
         <v>187.8606254220168</v>
@@ -32812,16 +32812,16 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R24" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S24" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T24" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H25" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I25" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J25" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K25" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L25" t="n">
         <v>122.6216942667292</v>
@@ -32882,25 +32882,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O25" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P25" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R25" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S25" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T25" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H26" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I26" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J26" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K26" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L26" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M26" t="n">
-        <v>322.8590281671736</v>
+        <v>322.8590281671735</v>
       </c>
       <c r="N26" t="n">
-        <v>321.9258585364918</v>
+        <v>321.9258585364917</v>
       </c>
       <c r="O26" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P26" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q26" t="n">
         <v>198.5585436517358</v>
@@ -32976,7 +32976,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T26" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U26" t="n">
         <v>0.1470957251763619</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H27" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I27" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J27" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K27" t="n">
         <v>158.8604126547474</v>
@@ -33037,10 +33037,10 @@
         <v>234.6468288619191</v>
       </c>
       <c r="N27" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9257023045182</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P27" t="n">
         <v>187.8606254220168</v>
@@ -33049,16 +33049,16 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R27" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S27" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T27" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H28" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I28" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J28" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K28" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L28" t="n">
         <v>122.6216942667292</v>
@@ -33119,25 +33119,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O28" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P28" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R28" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S28" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T28" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H29" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I29" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J29" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K29" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L29" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M29" t="n">
-        <v>322.8590281671736</v>
+        <v>322.8590281671735</v>
       </c>
       <c r="N29" t="n">
-        <v>321.9258585364918</v>
+        <v>321.9258585364917</v>
       </c>
       <c r="O29" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P29" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q29" t="n">
         <v>198.5585436517358</v>
@@ -33213,7 +33213,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T29" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U29" t="n">
         <v>0.1470957251763619</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H30" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I30" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J30" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K30" t="n">
         <v>158.8604126547474</v>
@@ -33277,7 +33277,7 @@
         <v>223.8545070232341</v>
       </c>
       <c r="O30" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P30" t="n">
         <v>187.8606254220168</v>
@@ -33286,16 +33286,16 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R30" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S30" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T30" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H31" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I31" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J31" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K31" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L31" t="n">
         <v>122.6216942667292</v>
@@ -33356,25 +33356,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O31" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P31" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R31" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S31" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T31" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H32" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I32" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J32" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K32" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L32" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M32" t="n">
-        <v>322.8590281671736</v>
+        <v>322.8590281671735</v>
       </c>
       <c r="N32" t="n">
-        <v>321.9258585364918</v>
+        <v>321.9258585364917</v>
       </c>
       <c r="O32" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P32" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q32" t="n">
         <v>198.5585436517358</v>
@@ -33450,7 +33450,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T32" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U32" t="n">
         <v>0.1470957251763619</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H33" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I33" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J33" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K33" t="n">
         <v>158.8604126547474</v>
@@ -33514,7 +33514,7 @@
         <v>163.7116864909628</v>
       </c>
       <c r="O33" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P33" t="n">
         <v>187.8606254220168</v>
@@ -33523,16 +33523,16 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R33" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S33" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T33" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H34" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I34" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J34" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K34" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L34" t="n">
         <v>122.6216942667292</v>
@@ -33593,25 +33593,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O34" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P34" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R34" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S34" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T34" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H35" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I35" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J35" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K35" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L35" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M35" t="n">
-        <v>322.8590281671736</v>
+        <v>322.8590281671735</v>
       </c>
       <c r="N35" t="n">
-        <v>321.9258585364918</v>
+        <v>321.9258585364917</v>
       </c>
       <c r="O35" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P35" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q35" t="n">
         <v>198.5585436517358</v>
@@ -33687,7 +33687,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T35" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U35" t="n">
         <v>0.1470957251763619</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H36" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I36" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J36" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K36" t="n">
         <v>158.8604126547474</v>
@@ -33751,7 +33751,7 @@
         <v>163.7116864909628</v>
       </c>
       <c r="O36" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P36" t="n">
         <v>187.8606254220168</v>
@@ -33760,16 +33760,16 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R36" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S36" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T36" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H37" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I37" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J37" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K37" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L37" t="n">
         <v>122.6216942667292</v>
@@ -33830,25 +33830,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O37" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P37" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R37" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S37" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T37" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H38" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I38" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J38" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K38" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L38" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M38" t="n">
-        <v>322.8590281671736</v>
+        <v>322.8590281671735</v>
       </c>
       <c r="N38" t="n">
         <v>321.9258585364917</v>
       </c>
       <c r="O38" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P38" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q38" t="n">
         <v>198.5585436517358</v>
@@ -33924,7 +33924,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T38" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U38" t="n">
         <v>0.1470957251763619</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H39" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I39" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J39" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K39" t="n">
         <v>158.8604126547474</v>
@@ -33982,13 +33982,13 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M39" t="n">
-        <v>174.5040083296477</v>
+        <v>234.6468288619191</v>
       </c>
       <c r="N39" t="n">
-        <v>223.8545070232341</v>
+        <v>163.7116864909628</v>
       </c>
       <c r="O39" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P39" t="n">
         <v>187.8606254220168</v>
@@ -33997,16 +33997,16 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R39" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S39" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T39" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H40" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I40" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J40" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K40" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L40" t="n">
         <v>122.6216942667292</v>
@@ -34067,25 +34067,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O40" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P40" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R40" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S40" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T40" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H41" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I41" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J41" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K41" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L41" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M41" t="n">
-        <v>322.7470581984208</v>
+        <v>322.7470581984207</v>
       </c>
       <c r="N41" t="n">
-        <v>321.813888567739</v>
+        <v>321.8138885677389</v>
       </c>
       <c r="O41" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P41" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q41" t="n">
         <v>198.5585436517358</v>
@@ -34161,7 +34161,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T41" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U41" t="n">
         <v>0.1470957251763619</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H42" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I42" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J42" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K42" t="n">
         <v>158.8604126547474</v>
@@ -34219,31 +34219,31 @@
         <v>213.6074294068846</v>
       </c>
       <c r="M42" t="n">
-        <v>234.5348588931664</v>
+        <v>174.172622462531</v>
       </c>
       <c r="N42" t="n">
-        <v>223.7425370544814</v>
+        <v>223.7425370544813</v>
       </c>
       <c r="O42" t="n">
-        <v>227.5925044138408</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>187.8606254220168</v>
       </c>
       <c r="Q42" t="n">
         <v>125.5798530543979</v>
       </c>
       <c r="R42" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S42" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T42" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H43" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I43" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J43" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K43" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L43" t="n">
         <v>122.6216942667292</v>
@@ -34304,25 +34304,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O43" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P43" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R43" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S43" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T43" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.838696564704525</v>
+        <v>1.838696564704524</v>
       </c>
       <c r="H44" t="n">
         <v>18.83055119328021</v>
       </c>
       <c r="I44" t="n">
-        <v>70.88634931077125</v>
+        <v>70.88634931077124</v>
       </c>
       <c r="J44" t="n">
-        <v>156.0570725585908</v>
+        <v>156.0570725585907</v>
       </c>
       <c r="K44" t="n">
-        <v>233.8890981425334</v>
+        <v>233.8890981425333</v>
       </c>
       <c r="L44" t="n">
-        <v>290.1601081346095</v>
+        <v>290.1601081346094</v>
       </c>
       <c r="M44" t="n">
-        <v>322.7470581984209</v>
+        <v>322.7470581984207</v>
       </c>
       <c r="N44" t="n">
-        <v>321.813888567739</v>
+        <v>321.8138885677389</v>
       </c>
       <c r="O44" t="n">
-        <v>309.7996858163597</v>
+        <v>309.7996858163596</v>
       </c>
       <c r="P44" t="n">
-        <v>264.4068643752167</v>
+        <v>264.4068643752166</v>
       </c>
       <c r="Q44" t="n">
         <v>198.5585436517358</v>
@@ -34398,7 +34398,7 @@
         <v>41.89929796820439</v>
       </c>
       <c r="T44" t="n">
-        <v>8.04889421199406</v>
+        <v>8.048894211994059</v>
       </c>
       <c r="U44" t="n">
         <v>0.1470957251763619</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9837893930869546</v>
+        <v>0.9837893930869543</v>
       </c>
       <c r="H45" t="n">
-        <v>9.501334401655589</v>
+        <v>9.501334401655587</v>
       </c>
       <c r="I45" t="n">
-        <v>33.87169620935349</v>
+        <v>33.87169620935348</v>
       </c>
       <c r="J45" t="n">
-        <v>92.94652331792146</v>
+        <v>92.94652331792143</v>
       </c>
       <c r="K45" t="n">
         <v>158.8604126547474</v>
       </c>
       <c r="L45" t="n">
-        <v>153.2451929762493</v>
+        <v>213.6074294068846</v>
       </c>
       <c r="M45" t="n">
-        <v>234.5348588931664</v>
+        <v>174.172622462531</v>
       </c>
       <c r="N45" t="n">
-        <v>223.7425370544814</v>
+        <v>223.7425370544813</v>
       </c>
       <c r="O45" t="n">
-        <v>234.0685228367896</v>
+        <v>234.0685228367895</v>
       </c>
       <c r="P45" t="n">
         <v>187.8606254220168</v>
@@ -34471,16 +34471,16 @@
         <v>125.5798530543979</v>
       </c>
       <c r="R45" t="n">
-        <v>61.08123968657428</v>
+        <v>61.08123968657426</v>
       </c>
       <c r="S45" t="n">
         <v>18.27345649001425</v>
       </c>
       <c r="T45" t="n">
-        <v>3.96536163266189</v>
+        <v>3.965361632661889</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06472298638729967</v>
+        <v>0.06472298638729966</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8247759795365177</v>
+        <v>0.8247759795365176</v>
       </c>
       <c r="H46" t="n">
-        <v>7.333008254424682</v>
+        <v>7.33300825442468</v>
       </c>
       <c r="I46" t="n">
-        <v>24.8032630936982</v>
+        <v>24.80326309369819</v>
       </c>
       <c r="J46" t="n">
-        <v>58.3116617532318</v>
+        <v>58.31166175323179</v>
       </c>
       <c r="K46" t="n">
-        <v>95.82397289524268</v>
+        <v>95.82397289524266</v>
       </c>
       <c r="L46" t="n">
         <v>122.6216942667292</v>
@@ -34541,25 +34541,25 @@
         <v>126.2132187594383</v>
       </c>
       <c r="O46" t="n">
-        <v>116.5783357257617</v>
+        <v>116.5783357257616</v>
       </c>
       <c r="P46" t="n">
-        <v>99.75290574321662</v>
+        <v>99.75290574321659</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.06374134100787</v>
+        <v>69.06374134100786</v>
       </c>
       <c r="R46" t="n">
-        <v>37.08492722534196</v>
+        <v>37.08492722534195</v>
       </c>
       <c r="S46" t="n">
         <v>14.3735959342864</v>
       </c>
       <c r="T46" t="n">
-        <v>3.52404282165603</v>
+        <v>3.524042821656029</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04498778070199193</v>
+        <v>0.04498778070199192</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>13.75251937836333</v>
+        <v>13.75251937836322</v>
       </c>
       <c r="L11" t="n">
-        <v>54.33572329702014</v>
+        <v>54.33572329702002</v>
       </c>
       <c r="M11" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="N11" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="O11" t="n">
-        <v>79.6395808184491</v>
+        <v>79.63958081844899</v>
       </c>
       <c r="P11" t="n">
-        <v>33.12104388459858</v>
+        <v>33.12104388459846</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>20.98723562670483</v>
+        <v>20.98723562670475</v>
       </c>
       <c r="L12" t="n">
-        <v>14.5874308016077</v>
+        <v>75.01037389711365</v>
       </c>
       <c r="M12" t="n">
-        <v>92.28885500239529</v>
+        <v>92.28885500239517</v>
       </c>
       <c r="N12" t="n">
-        <v>92.28885500239529</v>
+        <v>85.71459803035718</v>
       </c>
       <c r="O12" t="n">
-        <v>91.42551482665067</v>
+        <v>91.42551482665056</v>
       </c>
       <c r="P12" t="n">
-        <v>53.84868612346798</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>13.75251937836333</v>
+        <v>13.75251937836325</v>
       </c>
       <c r="L14" t="n">
-        <v>54.33572329702014</v>
+        <v>54.33572329702002</v>
       </c>
       <c r="M14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="N14" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="O14" t="n">
-        <v>79.6395808184491</v>
+        <v>79.63958081844899</v>
       </c>
       <c r="P14" t="n">
-        <v>33.12104388459858</v>
+        <v>33.12104388459852</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20.98723562670477</v>
       </c>
       <c r="L15" t="n">
-        <v>75.01037389711377</v>
+        <v>75.01037389711368</v>
       </c>
       <c r="M15" t="n">
-        <v>92.28885500239531</v>
+        <v>92.2888550023952</v>
       </c>
       <c r="N15" t="n">
-        <v>92.28885500239531</v>
+        <v>31.86591190688925</v>
       </c>
       <c r="O15" t="n">
-        <v>51.98980735784945</v>
+        <v>91.42551482665058</v>
       </c>
       <c r="P15" t="n">
-        <v>53.84868612346798</v>
+        <v>53.8486861234679</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L17" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M17" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="N17" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="O17" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P17" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L18" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M18" t="n">
-        <v>92.40082497114808</v>
+        <v>85.92480654819919</v>
       </c>
       <c r="N18" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="O18" t="n">
-        <v>31.11004196170978</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P18" t="n">
-        <v>53.88621800768658</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L20" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M20" t="n">
-        <v>92.40082497114815</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="N20" t="n">
-        <v>92.40082497114815</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="O20" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P20" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L21" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M21" t="n">
-        <v>32.03858854051293</v>
+        <v>92.40082497114797</v>
       </c>
       <c r="N21" t="n">
-        <v>92.40082497114815</v>
+        <v>32.03858854051264</v>
       </c>
       <c r="O21" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P21" t="n">
-        <v>53.88621800768658</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L23" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M23" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N23" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O23" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P23" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L24" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M24" t="n">
-        <v>32.36997440762946</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N24" t="n">
-        <v>92.51279493990083</v>
+        <v>32.36997440762951</v>
       </c>
       <c r="O24" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P24" t="n">
-        <v>53.88621800768658</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L26" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M26" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N26" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O26" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P26" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L27" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M27" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N27" t="n">
-        <v>92.51279493990083</v>
+        <v>32.36997440762951</v>
       </c>
       <c r="O27" t="n">
-        <v>31.32945786007378</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P27" t="n">
-        <v>53.88621800768658</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L29" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M29" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N29" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O29" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P29" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L30" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M30" t="n">
-        <v>32.36997440762946</v>
+        <v>32.36997440762951</v>
       </c>
       <c r="N30" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O30" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P30" t="n">
-        <v>53.88621800768658</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L32" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M32" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N32" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O32" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P32" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L33" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M33" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N33" t="n">
-        <v>32.36997440762946</v>
+        <v>32.36997440762951</v>
       </c>
       <c r="O33" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P33" t="n">
-        <v>53.88621800768658</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L35" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M35" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N35" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O35" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P35" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L36" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M36" t="n">
-        <v>92.51279493990083</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N36" t="n">
-        <v>32.36997440762946</v>
+        <v>32.36997440762951</v>
       </c>
       <c r="O36" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P36" t="n">
-        <v>53.88621800768658</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L38" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M38" t="n">
-        <v>92.51279493990081</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N38" t="n">
-        <v>92.51279493990081</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="O38" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P38" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L39" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M39" t="n">
-        <v>32.3699744076294</v>
+        <v>92.51279493990077</v>
       </c>
       <c r="N39" t="n">
-        <v>92.51279493990081</v>
+        <v>32.36997440762951</v>
       </c>
       <c r="O39" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P39" t="n">
-        <v>53.88621800768658</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L41" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M41" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="N41" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="O41" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P41" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L42" t="n">
-        <v>75.05304962701044</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M42" t="n">
-        <v>92.40082497114808</v>
+        <v>32.03858854051268</v>
       </c>
       <c r="N42" t="n">
-        <v>92.40082497114808</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="O42" t="n">
-        <v>84.99625996939635</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>13.79924709755281</v>
+        <v>13.79924709755275</v>
       </c>
       <c r="L44" t="n">
-        <v>54.39369316462228</v>
+        <v>54.39369316462216</v>
       </c>
       <c r="M44" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="N44" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="O44" t="n">
-        <v>79.70147439467294</v>
+        <v>79.70147439467289</v>
       </c>
       <c r="P44" t="n">
-        <v>33.17386861994714</v>
+        <v>33.17386861994709</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>21.01897368038843</v>
+        <v>21.01897368038837</v>
       </c>
       <c r="L45" t="n">
-        <v>14.69081319637511</v>
+        <v>75.05304962701038</v>
       </c>
       <c r="M45" t="n">
-        <v>92.4008249711481</v>
+        <v>32.03858854051268</v>
       </c>
       <c r="N45" t="n">
-        <v>92.4008249711481</v>
+        <v>92.40082497114798</v>
       </c>
       <c r="O45" t="n">
-        <v>91.47227839234515</v>
+        <v>91.47227839234509</v>
       </c>
       <c r="P45" t="n">
-        <v>53.88621800768658</v>
+        <v>53.88621800768652</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
